--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basmachielsen/Documents/git/UU_PhD_BasMachielsen/Paper1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDEE403-3395-3749-BD69-79CBE14FE6BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC737848-10A1-4B4E-85D4-162A18B9D38A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{DD37B853-59D8-284E-B51B-F091A3EC8B83}" name="instrumental_variable_wealth_par" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/basmachielsen/Documents/git/UU_PhD_BasMachielsen/Paper1/Data/instrumental_variable_wealth_par.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/basmachielsen/Documents/git/UU_PhD_BasMachielsen/Paper1/Data/instrumental_variable_wealth_par.csv" decimal="," thousands="." semicolon="1">
       <textFields count="11">
         <textField type="text"/>
         <textField type="text"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1111">
   <si>
     <t>polid</t>
   </si>
@@ -3203,6 +3203,192 @@
   </si>
   <si>
     <t>1832-08-06</t>
+  </si>
+  <si>
+    <t>1853-04-04</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Jan_Willem_Conrad</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>1883-05-13</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Juliana-Louisa-Lenssen/6000000017051917800</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>1855-07-25</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Jan_Corver_Hooft</t>
+  </si>
+  <si>
+    <t>s-Graveland</t>
+  </si>
+  <si>
+    <t>1837-12-03</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-tolsma/I39447.php</t>
+  </si>
+  <si>
+    <t>1869-06-20</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jacob-Theodoor-Cremer/6000000016289378610</t>
+  </si>
+  <si>
+    <t>1874-12-10</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Louise-Water/6000000016289416424</t>
+  </si>
+  <si>
+    <t>1845-07-30</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Franciscus_Jacobus_Joannes_Cremers</t>
+  </si>
+  <si>
+    <t>1842-04-12</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/gra:5ee990f1-7411-cf39-8b33-319846932de3</t>
+  </si>
+  <si>
+    <t>1866-05-28</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Godert-Willem-van-Dedem-van-den-Berg-baron/6000000016794079360</t>
+  </si>
+  <si>
+    <t>Dalfsen</t>
+  </si>
+  <si>
+    <t>1843-02-02</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Grietjen-Boxem/6000000016794130165</t>
+  </si>
+  <si>
+    <t>1858-08-07</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Steven-van-Delden/6000000017955695351</t>
+  </si>
+  <si>
+    <t>Winterswijk?</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Engelina-Elisabeth-Schutte/6000000017955695357</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/hga:E8D6E7AD-C584-44F2-84F1-C63267B0B2E9</t>
+  </si>
+  <si>
+    <t>1910-12-25</t>
+  </si>
+  <si>
+    <t>1892-05-14</t>
+  </si>
+  <si>
+    <t>http://www.biografischportaal.nl/persoon/99433997</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Elisabeth-Allegonda-Soiron/6000000028892163968</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>1886-11-27</t>
+  </si>
+  <si>
+    <t>1880-02-29</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/assel209?lang=en&amp;pz=joannes&amp;nz=asselberghs&amp;p=johann+peter&amp;n=dobbelmann</t>
+  </si>
+  <si>
+    <t>1885-06-25</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jakob-Dolk/6000000023794685073</t>
+  </si>
+  <si>
+    <t>Etten-Leur?</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Wilhelmina-van-der-Burgt/6000000023794419298</t>
+  </si>
+  <si>
+    <t>1881-08-01</t>
+  </si>
+  <si>
+    <t>1839-08-14</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Johannes-Donner/6000000026587193211</t>
+  </si>
+  <si>
+    <t>1863-08-19</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Aleijda-Koopman/6000000026587281268</t>
+  </si>
+  <si>
+    <t>1882-08-02</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Elisa_Cornelis_Unico_van_Doorn</t>
+  </si>
+  <si>
+    <t>Maarn</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Rudolphine-Weerts/6000000017477968730</t>
+  </si>
+  <si>
+    <t>1895</t>
+  </si>
+  <si>
+    <t>Velp, Rheden</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom_drion/I9.php</t>
+  </si>
+  <si>
+    <t>1886-11-06</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom_drion/I13.php</t>
+  </si>
+  <si>
+    <t>1937-09-08</t>
+  </si>
+  <si>
+    <t>Putten</t>
+  </si>
+  <si>
+    <t>http://www.jodeninnederland.nl/id/P-3871</t>
+  </si>
+  <si>
+    <t>Voorschoten</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/search.php?name=Johanna+Carolina+Christina+Margaretha+Therese+Temme</t>
+  </si>
+  <si>
+    <t>1884-04-08</t>
   </si>
 </sst>
 </file>
@@ -3247,10 +3433,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3572,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCA590D-D655-0D41-8189-7502BFDA6186}">
   <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4678,7 +4865,24 @@
       <c r="E45" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -4696,7 +4900,21 @@
       <c r="E46" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -4714,7 +4932,24 @@
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -4732,9 +4967,26 @@
       <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>446</v>
       </c>
@@ -4752,16 +5004,33 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -4776,7 +5045,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>451</v>
       </c>
@@ -4792,9 +5061,23 @@
       <c r="E52" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>453</v>
       </c>
@@ -4810,9 +5093,23 @@
       <c r="E53" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>456</v>
       </c>
@@ -4828,8 +5125,26 @@
       <c r="E54" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>459</v>
       </c>
@@ -4845,8 +5160,26 @@
       <c r="E55" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>462</v>
       </c>
@@ -4862,8 +5195,26 @@
       <c r="E56" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>465</v>
       </c>
@@ -4879,8 +5230,26 @@
       <c r="E57" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>469</v>
       </c>
@@ -4896,8 +5265,26 @@
       <c r="E58" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>472</v>
       </c>
@@ -4913,8 +5300,20 @@
       <c r="E59" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>475</v>
       </c>
@@ -4931,7 +5330,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>477</v>
       </c>
@@ -4948,7 +5347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>479</v>
       </c>
@@ -4965,7 +5364,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>479</v>
       </c>
@@ -4982,7 +5381,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>482</v>
       </c>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basmachielsen/Documents/git/UU_PhD_BasMachielsen/Paper1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC737848-10A1-4B4E-85D4-162A18B9D38A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504112E7-E005-C24C-AE68-60EBE5E5B5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
+    <workbookView xWindow="-33040" yWindow="-3280" windowWidth="28040" windowHeight="16140" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="instrumental_variable_wealth_par_1" localSheetId="0">Sheet1!$A$1:$M$265</definedName>
+    <definedName name="instrumental_variable_wealth_par_1" localSheetId="0">Sheet1!$A$1:$M$264</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1307">
   <si>
     <t>polid</t>
   </si>
@@ -322,12 +322,6 @@
     <t>A. van Dedem</t>
   </si>
   <si>
-    <t xml:space="preserve">G. </t>
-  </si>
-  <si>
-    <t>Dedem"</t>
-  </si>
-  <si>
     <t>van Delden</t>
   </si>
   <si>
@@ -379,9 +373,6 @@
     <t>1891-11-09</t>
   </si>
   <si>
-    <t>van Eek</t>
-  </si>
-  <si>
     <t>1895-03-13</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>Jannink</t>
   </si>
   <si>
-    <t>vau Veen</t>
-  </si>
-  <si>
     <t>Janssen</t>
   </si>
   <si>
@@ -3358,9 +3346,6 @@
     <t>https://www.geni.com/people/Rudolphine-Weerts/6000000017477968730</t>
   </si>
   <si>
-    <t>1895</t>
-  </si>
-  <si>
     <t>Velp, Rheden</t>
   </si>
   <si>
@@ -3389,6 +3374,609 @@
   </si>
   <si>
     <t>1884-04-08</t>
+  </si>
+  <si>
+    <t>1871-02-14</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/gld:AFA29EB7-24DB-4F9F-8689-F0B541228ABE</t>
+  </si>
+  <si>
+    <t>1865-1028</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/search.php?name=Jenneke+Lucia+van+Riemsdijk</t>
+  </si>
+  <si>
+    <t>1919-04-02</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7036.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7037.php</t>
+  </si>
+  <si>
+    <t>1875-01-15</t>
+  </si>
+  <si>
+    <t>1873-04-21</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Herman-Dijckmeester/6000000016203897521</t>
+  </si>
+  <si>
+    <t>Tiel?</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/search.php?name=Jacoba+Hermanna+Verschoor</t>
+  </si>
+  <si>
+    <t>Lent</t>
+  </si>
+  <si>
+    <t>1893-06-19</t>
+  </si>
+  <si>
+    <t>van Eck</t>
+  </si>
+  <si>
+    <t>1825-09-03</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Pieter-van-Eck/6000000017803950153</t>
+  </si>
+  <si>
+    <t>1860-10-11</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Theodora-Alida-Buijze/6000000017802503388</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>1892-08-24</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Johannes-Cornelis-Eland/6000000036788038320</t>
+  </si>
+  <si>
+    <t>Bemmel</t>
+  </si>
+  <si>
+    <t>1875-12-24</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Martina-Margaretha-van-der-Zanden/6000000036788038314</t>
+  </si>
+  <si>
+    <t>1881-10-19</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/genealogie-koek/I51768.php</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/genealogie-koek/I51769.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I7392203.php</t>
+  </si>
+  <si>
+    <t>1888-08-08</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>1871-11-23</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I7392205.php</t>
+  </si>
+  <si>
+    <t>Ginneken</t>
+  </si>
+  <si>
+    <t>1870-08-07</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Gustaaf_Willem_van_der_Feltz_(1793-1870)</t>
+  </si>
+  <si>
+    <t>Epe</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1910-05-09</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Cornelis-Fock/6000000013030256893</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Anne-Uyttenhooven/6000000013030283945</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1900-06-28</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-onvlee/I6171.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-onvlee/I1076.php</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Abraham-Gevers-Deynoot/6000000023152339828</t>
+  </si>
+  <si>
+    <t>1844-09-25</t>
+  </si>
+  <si>
+    <t>Loosduinen</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Margareta-Catharina-Wijckerheld-Bisdom/6000000021047588664</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I19144.php</t>
+  </si>
+  <si>
+    <t>1865-03-13</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/west-europese-adel/I19145.php</t>
+  </si>
+  <si>
+    <t>1887-04-02</t>
+  </si>
+  <si>
+    <t>1885-08-19</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Cornelis-Goekoop/6000000030455025253</t>
+  </si>
+  <si>
+    <t>1861-04-17</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Florina-Goekoop/6000000030454919535</t>
+  </si>
+  <si>
+    <t>Goedereede</t>
+  </si>
+  <si>
+    <t>1864-04-06</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jacobus-Borgesius/6000000014243925865</t>
+  </si>
+  <si>
+    <t>Schildwolde</t>
+  </si>
+  <si>
+    <t>1862-03-28</t>
+  </si>
+  <si>
+    <t>Schildwode</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Grietje-Elizabeth-Dijkhuizen/6000000014243925870</t>
+  </si>
+  <si>
+    <t>1870-07-24</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Hugo-van-Gijn/6000000015063437775</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Fran%C3%A7oise-Cornelia-Stoop/6000000015063601119</t>
+  </si>
+  <si>
+    <t>1851-04-26</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Joannes-Alexander-Leopold-Haffmans/6000000018675993635</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Dorothea-Lambertina-Verblackt/6000000018675993642</t>
+  </si>
+  <si>
+    <t>1876-02-12</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>Ooijen</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Joost-Adriaan-van-Hamel/6000000032299170139</t>
+  </si>
+  <si>
+    <t>1885-09-05</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Gesina-Cecilia-Gerarda-van-Hamel/6000000019852195846</t>
+  </si>
+  <si>
+    <t>1887-07-14</t>
+  </si>
+  <si>
+    <t>Velp</t>
+  </si>
+  <si>
+    <t>00522</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-van-gorcum/I1119.php</t>
+  </si>
+  <si>
+    <t>Hilversum</t>
+  </si>
+  <si>
+    <t>1890-09-15</t>
+  </si>
+  <si>
+    <t>1869-08-05</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-van-gorcum/I1126.php</t>
+  </si>
+  <si>
+    <t>1871-08-21</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Hendrik-Hartogh/6000000015258442056</t>
+  </si>
+  <si>
+    <t>Muiderberg</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Fanny-Enthoven/6000000026587887908</t>
+  </si>
+  <si>
+    <t>1908-09-18</t>
+  </si>
+  <si>
+    <t>Zeist</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Gerrit-Heeres/6000000028183973127</t>
+  </si>
+  <si>
+    <t>1892-08-11</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Cornelis_van_Heukelom</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>G. van Dedem</t>
+  </si>
+  <si>
+    <t>1834-04-05</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Simon-Hingst/6000000025739092246</t>
+  </si>
+  <si>
+    <t>https://www.all-the-hingst.com/allthehingst/index.php?route=individual&amp;xref=X239&amp;ged=hingst</t>
+  </si>
+  <si>
+    <t>misc1</t>
+  </si>
+  <si>
+    <t>misc2</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I73350938.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I73199618.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-driessen/I73199620.php</t>
+  </si>
+  <si>
+    <t>1890-03-03</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Jan_Samuel_Fran%C3%A7ois_van_Hoogstraten</t>
+  </si>
+  <si>
+    <t>1899-10-13</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/west-europese-adel/I250609.php</t>
+  </si>
+  <si>
+    <t>1864-06-16</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Derk-Hindriks-van-Houten/6000000014815348209</t>
+  </si>
+  <si>
+    <t>1856-07-11</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Barbara-Elisabeth-Meihuizen/6000000014814843942</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Sientje-van-Houten/6000000014815361536</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-houwing-oostenbrug/I1106.php</t>
+  </si>
+  <si>
+    <t>1882-03-02</t>
+  </si>
+  <si>
+    <t>Terwispel</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-houwing-oostenbrug/I1129.php</t>
+  </si>
+  <si>
+    <t>1888-08-28</t>
+  </si>
+  <si>
+    <t>1880-04-14</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-den-elzen/I61639.php</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-den-elzen/I61643.php</t>
+  </si>
+  <si>
+    <t>Vogelenzang</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-de-leede/I46149.php</t>
+  </si>
+  <si>
+    <t>1896-11-16</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-de-leede/I46150.php</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>Den Haag?</t>
+  </si>
+  <si>
+    <t>1855-04-12</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/frl:3280f222-6886-361a-831e-373b815b5de1</t>
+  </si>
+  <si>
+    <t>1822-09-19</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jeltje-Dijkstra/6000000036668059956</t>
+  </si>
+  <si>
+    <t>Wergea</t>
+  </si>
+  <si>
+    <t>Sloten</t>
+  </si>
+  <si>
+    <t>1867-03-24</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Benjamin-Jannink/6000000029938147229</t>
+  </si>
+  <si>
+    <t>1881-12-09</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jeannette-Antonia-Reerink/6000000008952144495</t>
+  </si>
+  <si>
+    <t>Lochem</t>
+  </si>
+  <si>
+    <t>Jansen</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Johannes-Coenraad-Jansen/6000000031250995037</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/rzh:c478a813-5a08-4c87-87c8-4096e63d03b5/en</t>
+  </si>
+  <si>
+    <t>1860-02-07</t>
+  </si>
+  <si>
+    <t>1887-11-06</t>
+  </si>
+  <si>
+    <t>Bingelrade</t>
+  </si>
+  <si>
+    <t>1835-12-26</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-kooiman-bruijn-mantel/I8489.php</t>
+  </si>
+  <si>
+    <t>google for: Frans Isidoor Janssen</t>
+  </si>
+  <si>
+    <t>Hoogkarspel</t>
+  </si>
+  <si>
+    <t>1852-05-19</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-kooiman-bruijn-mantel/I8490.php</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Luisa-Elisabeth-Lauer/6000000037421881723</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/en/het-eiland-schiermonnikoog/I7316.php</t>
+  </si>
+  <si>
+    <t>Middelharnis</t>
+  </si>
+  <si>
+    <t>1907-05-08</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Gerrit_de_Jongh</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/assel209?lang=en&amp;pz=joannes&amp;nz=asselberghs&amp;p=franciscus+gomarus&amp;n=juten</t>
+  </si>
+  <si>
+    <t>1897-12-26</t>
+  </si>
+  <si>
+    <t>Bergen op Zoom</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/assel209?lang=en&amp;pz=joannes&amp;nz=asselberghs&amp;p=elisabeth+johanna&amp;n=vergroesen</t>
+  </si>
+  <si>
+    <t>1909-05-03</t>
+  </si>
+  <si>
+    <t>Loosduinen (Den Haag)</t>
+  </si>
+  <si>
+    <t>1907-04-13</t>
+  </si>
+  <si>
+    <t>1861-02-17</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-van-iddekinge/I55.php</t>
+  </si>
+  <si>
+    <t>1869-08-29</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-van-iddekinge/I1330.php</t>
+  </si>
+  <si>
+    <t>1895-08-10</t>
+  </si>
+  <si>
+    <t>1868-04-19</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/nha:a5d6c02c-f1fc-4549-a3d1-6f8ae6cc7874</t>
+  </si>
+  <si>
+    <t>Alkmaar</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/search.php?top&amp;name=Jannetje+Dorreman&amp;number_show=10&amp;sort=1&amp;start=20</t>
+  </si>
+  <si>
+    <t>1879-12-29</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/kantnic?lang=en&amp;p=hubert+philippus&amp;n=de+kanter</t>
+  </si>
+  <si>
+    <t>1868-06-05</t>
+  </si>
+  <si>
+    <t>Brielle</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/kantnic?lang=en&amp;p=johanna+alida&amp;n=van+andel</t>
+  </si>
+  <si>
+    <t>1876-02-17</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-de-leede/I63956.php</t>
+  </si>
+  <si>
+    <t>1874-09-25</t>
+  </si>
+  <si>
+    <t>1888-07-10</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-richard-remme/I324970.php</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Abraham_Willem_van_Kerkwijk</t>
+  </si>
+  <si>
+    <t>1853-12-05</t>
+  </si>
+  <si>
+    <t>Ouddorp</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-de-vos-verschuur/I101092.php</t>
+  </si>
+  <si>
+    <t>1882-02-25</t>
+  </si>
+  <si>
+    <t>1884-03-16</t>
+  </si>
+  <si>
+    <t>https://www.delpher.nl/nl/tijdschriften/view?identifier=MMKB26:000043052:00008&amp;query=Johann+Gottlieb+Ketelaar&amp;coll=dts</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/visser?lang=en&amp;n=smit&amp;p=arie&amp;on_register_success=1</t>
+  </si>
+  <si>
+    <t>Kralingen (Rotterdam)</t>
+  </si>
+  <si>
+    <t>1875-02-06</t>
+  </si>
+  <si>
+    <t>1889-03-01</t>
+  </si>
+  <si>
+    <t>https://www.delpher.nl/nl/kranten/view?query=Gerhard+Snoeck+Henkemans&amp;coll=ddd&amp;identifier=MMKB15:000720044:mpeg21:a00026&amp;resultsidentifier=MMKB15:000720044:mpeg21:a00026</t>
+  </si>
+  <si>
+    <t>https://www.delpher.nl/nl/kranten/view?query=Johanna+Clasina+Snoeck+Henkemans&amp;coll=ddd&amp;identifier=MMKB23:001390078:mpeg21:a00043&amp;resultsidentifier=MMKB23:001390078:mpeg21:a00043</t>
+  </si>
+  <si>
+    <t>1888-03-31</t>
+  </si>
+  <si>
+    <t>1914-01-19</t>
+  </si>
+  <si>
+    <t>Johanna Pot, Jan Smit</t>
   </si>
 </sst>
 </file>
@@ -3757,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCA590D-D655-0D41-8189-7502BFDA6186}">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3780,7 +4368,7 @@
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3812,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -3820,22 +4408,28 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -3847,35 +4441,35 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -3884,13 +4478,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -3899,15 +4493,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -3919,36 +4513,36 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -3957,18 +4551,18 @@
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J6" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -3980,47 +4574,47 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G7" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F8">
         <v>1864</v>
       </c>
       <c r="G8" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -4032,21 +4626,21 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G9" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -4058,12 +4652,12 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
@@ -4078,9 +4672,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -4089,24 +4683,24 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G12" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -4115,32 +4709,32 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -4152,24 +4746,24 @@
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G15" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -4181,21 +4775,21 @@
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G16" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -4204,27 +4798,27 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -4236,12 +4830,12 @@
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
@@ -4250,33 +4844,33 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -4284,7 +4878,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -4293,7 +4887,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
@@ -4301,16 +4895,16 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>16</v>
@@ -4318,16 +4912,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
@@ -4335,7 +4929,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -4344,24 +4938,24 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="G24" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -4370,33 +4964,33 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
@@ -4404,7 +4998,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
@@ -4416,18 +5010,18 @@
         <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G27" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
@@ -4439,21 +5033,21 @@
         <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G28" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -4465,56 +5059,56 @@
         <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F29">
         <v>1846</v>
       </c>
       <c r="G29" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G30" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>16</v>
@@ -4523,16 +5117,16 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>16</v>
@@ -4541,7 +5135,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
@@ -4553,13 +5147,13 @@
         <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -4568,33 +5162,33 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G34" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -4603,56 +5197,56 @@
         <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G35" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J36" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="K36" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -4664,22 +5258,22 @@
         <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G37" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J37" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>25</v>
@@ -4687,7 +5281,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -4699,13 +5293,13 @@
         <v>71</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
@@ -4717,13 +5311,13 @@
         <v>71</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>73</v>
@@ -4735,56 +5329,56 @@
         <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J40" t="s">
         <v>1037</v>
       </c>
-      <c r="G40" t="s">
+      <c r="K40" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G41" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>76</v>
@@ -4796,24 +5390,24 @@
         <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J42" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="K42" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>78</v>
@@ -4822,7 +5416,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>16</v>
@@ -4831,7 +5425,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
@@ -4843,15 +5437,15 @@
         <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>81</v>
@@ -4860,33 +5454,33 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J45" t="s">
         <v>1049</v>
       </c>
-      <c r="G45" t="s">
+      <c r="K45" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>82</v>
@@ -4898,27 +5492,27 @@
         <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J46" t="s">
         <v>1055</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>84</v>
@@ -4927,25 +5521,25 @@
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G47" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="J47" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>25</v>
@@ -4953,7 +5547,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>85</v>
@@ -4968,27 +5562,27 @@
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G48" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="J48" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>87</v>
@@ -4997,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>16</v>
@@ -5006,188 +5600,217 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>1204</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J50" t="s">
         <v>1068</v>
       </c>
-      <c r="G50" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1072</v>
-      </c>
       <c r="K50" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J52" t="s">
         <v>1073</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" t="s">
         <v>1078</v>
       </c>
-      <c r="J53" t="s">
-        <v>1077</v>
+      <c r="K53" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J54" t="s">
         <v>1086</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1083</v>
+      <c r="K54" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G55" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1089</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J55" t="s">
         <v>1091</v>
       </c>
-      <c r="J55" t="s">
-        <v>1090</v>
-      </c>
       <c r="K55" s="1" t="s">
-        <v>1089</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>463</v>
@@ -5202,16 +5825,16 @@
         <v>1093</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>25</v>
+        <v>1094</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1094</v>
+        <v>1276</v>
       </c>
       <c r="J56" t="s">
         <v>1095</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>25</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5219,25 +5842,25 @@
         <v>465</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G57" t="s">
         <v>1097</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1098</v>
+        <v>994</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>1100</v>
@@ -5251,1275 +5874,1992 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G58" t="s">
         <v>1102</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J58" t="s">
         <v>1104</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>1106</v>
-      </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G59" t="s">
         <v>1107</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="J59" t="s">
         <v>1109</v>
       </c>
+      <c r="K59" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>481</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>1120</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1" t="s">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M84">
+        <v>1025136.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="D86" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L86">
+        <v>71015.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M89">
+        <v>199414.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="B96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F100">
+        <v>1823</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>148</v>
+        <v>564</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F103">
+        <v>1853</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="105" spans="1:15">
+      <c r="A105" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F105">
+        <v>1875</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K105" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="N106" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L108">
+        <v>83735.58</v>
+      </c>
+      <c r="N108" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="F110" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L110">
+        <v>169512.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1" t="s">
+      <c r="F111" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>160</v>
+        <v>592</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="F113" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="G114" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="B115" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1" t="s">
+      <c r="F116" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F117">
+        <v>1907</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E116" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F119">
+        <v>1847</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L120">
+        <v>14697.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="E121" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="M124">
+        <v>701699.13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="F126" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M126">
+        <v>53898.67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>178</v>
+        <v>635</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>640</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>16</v>
@@ -6527,16 +7867,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>16</v>
@@ -6544,50 +7884,50 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>649</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>16</v>
@@ -6595,67 +7935,67 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>659</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>16</v>
@@ -6663,152 +8003,152 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>663</v>
+        <v>187</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>16</v>
+        <v>661</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="E143" s="1" t="s">
-        <v>670</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>672</v>
+        <v>193</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>16</v>
+        <v>670</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>680</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>16</v>
@@ -6816,815 +8156,815 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="E155" s="1" t="s">
-        <v>702</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>710</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>739</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>749</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>754</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>758</v>
+        <v>231</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>759</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>235</v>
+        <v>758</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>16</v>
+        <v>759</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>778</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>252</v>
+        <v>796</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>798</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>802</v>
-      </c>
       <c r="E195" s="1" t="s">
-        <v>803</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>805</v>
+        <v>253</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>16</v>
@@ -7632,101 +8972,101 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>257</v>
+        <v>804</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>16</v>
+        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>812</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>817</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>16</v>
@@ -7734,67 +9074,67 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>826</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>827</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>16</v>
@@ -7802,16 +9142,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
@@ -7819,679 +9159,821 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D209" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="212" spans="1:14">
+      <c r="A212" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="D213" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="D214" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D212" s="1" t="s">
+    <row r="215" spans="1:14">
+      <c r="A215" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="D216" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M216">
+        <v>2440955.7400000002</v>
+      </c>
+      <c r="N216" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="B219" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1" t="s">
+      <c r="B220" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D220" s="1" t="s">
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1" t="s">
-        <v>863</v>
-      </c>
       <c r="B221" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B222" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="E223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D223" s="1" t="s">
+      <c r="C224" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="C230" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="B233" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="B234" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="1" t="s">
+      <c r="B235" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="E235" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="B237" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="E238" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>308</v>
+        <v>919</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="E246" s="1" t="s">
-        <v>930</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>16</v>
@@ -8499,16 +9981,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>16</v>
@@ -8516,291 +9998,274 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>941</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>942</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>944</v>
+        <v>315</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>16</v>
+        <v>942</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>959</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>960</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>962</v>
+        <v>323</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>16</v>
+        <v>960</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>964</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>329</v>
+        <v>963</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>16</v>
+        <v>964</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>968</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>970</v>
+        <v>329</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>16</v>
+        <v>968</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basmachielsen/Documents/git/UU_PhD_BasMachielsen/Paper1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504112E7-E005-C24C-AE68-60EBE5E5B5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128F020-3470-DB4B-8CF9-74CAE236DF7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33040" yWindow="-3280" windowWidth="28040" windowHeight="16140" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{1978E0BF-9847-6B4D-B01E-44B742104530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1373">
   <si>
     <t>polid</t>
   </si>
@@ -295,9 +295,6 @@
     <t>van Bylandt</t>
   </si>
   <si>
-    <t>de Caseinbroot</t>
-  </si>
-  <si>
     <t>1895-04-14</t>
   </si>
   <si>
@@ -3013,9 +3010,6 @@
     <t>https://www.genealogieonline.nl/stamboom-remmerswaal/R199.php</t>
   </si>
   <si>
-    <t>Arnhem?</t>
-  </si>
-  <si>
     <t>1843-07-16</t>
   </si>
   <si>
@@ -3109,9 +3103,6 @@
     <t>1906-03-21</t>
   </si>
   <si>
-    <t>Mr. Cornelis (Memories hopelijk Breda)</t>
-  </si>
-  <si>
     <t>https://www.genealogieonline.nl/genealogie-weissman-van-spall/I511702.php</t>
   </si>
   <si>
@@ -3181,9 +3172,6 @@
     <t>Kampen</t>
   </si>
   <si>
-    <t>1858</t>
-  </si>
-  <si>
     <t>1879-01-01</t>
   </si>
   <si>
@@ -3346,9 +3334,6 @@
     <t>https://www.geni.com/people/Rudolphine-Weerts/6000000017477968730</t>
   </si>
   <si>
-    <t>Velp, Rheden</t>
-  </si>
-  <si>
     <t>https://www.genealogieonline.nl/stamboom_drion/I9.php</t>
   </si>
   <si>
@@ -3977,13 +3962,226 @@
   </si>
   <si>
     <t>Johanna Pot, Jan Smit</t>
+  </si>
+  <si>
+    <t>1862-09-17</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-bakker/I0791.php</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/mjpgeanet?lang=nl&amp;pz=marco+nicolaas&amp;nz=scholten&amp;ocz=1&amp;p=bernar%C2%ADdina&amp;n=coman</t>
+  </si>
+  <si>
+    <t>1901-12-10</t>
+  </si>
+  <si>
+    <t>1864-06-27</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1858-02-28</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/assel209?lang=en&amp;n=van+baar&amp;oc=0&amp;p=guilielmus+arnoldus</t>
+  </si>
+  <si>
+    <t>Oirschot</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/assel209?lang=en&amp;pz=joannes&amp;nz=asselberghs&amp;p=catharina+theresia+agatha&amp;n=van+cuijck</t>
+  </si>
+  <si>
+    <t>1871-03-27</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I3618.php</t>
+  </si>
+  <si>
+    <t>1854-09-23</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/werckhoven-en-gerelateerde-stambomen/I2726.php</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I6805.php</t>
+  </si>
+  <si>
+    <t>1902-12-02</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I6804.php</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Josepha-van-Wayenburg/6000000002175325151</t>
+  </si>
+  <si>
+    <t>1887-01-09</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Agatha-Stuart/6000000000296707051</t>
+  </si>
+  <si>
+    <t>Overveen</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Jacoba-Dorothea-Jungbl%C3%BCth-Burer/6000000023487157019</t>
+  </si>
+  <si>
+    <t>Stephmother</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7109.php</t>
+  </si>
+  <si>
+    <t>1836-04-06</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogie-blusse-uit-dordrecht/I11717.php</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Vrouw: Henriette Bosch van Drakestein</t>
+  </si>
+  <si>
+    <t>overleed 1878, in Amsterdam</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-roskam-van-rouveroy-van-nieuwaal/I99.php</t>
+  </si>
+  <si>
+    <t>Mr. Cornelis (Memories hopelijk Den Haag)</t>
+  </si>
+  <si>
+    <t>Weltevreden (memorie hopelijk Den Haag)</t>
+  </si>
+  <si>
+    <t>1915-06-15</t>
+  </si>
+  <si>
+    <t>wealth_misc</t>
+  </si>
+  <si>
+    <t>1865-06-28</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-willems-hoogeloon-best/I230725.php</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Maria-Wilhelmina-de-Moen/6000000022832200925</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>Kampen?</t>
+  </si>
+  <si>
+    <t>de Casembroot</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/stamboom-dullemen/I221300.php</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>1858-04-17</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Leonard-de-Casembroot-jhr/6000000016743755582</t>
+  </si>
+  <si>
+    <t>1835-09-10</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Adriana-Johanna-van-Neukirchen/6000000037029827247</t>
+  </si>
+  <si>
+    <t>Had heel veel broers en zussen</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Johannes-Donner/6000000026586702625, https://www.geni.com/people/Gotfried-Donner/6000000026587232395, https://www.geni.com/people/Emilia-Donner/6000000026586706527</t>
+  </si>
+  <si>
+    <t>Broers en zussen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velp, Rheden (memorie maybe Utrecht?) </t>
+  </si>
+  <si>
+    <t>verzoek tot digitalisering ingediend by BHIC</t>
+  </si>
+  <si>
+    <t>Wel Tafel V-bis, niet memorie</t>
+  </si>
+  <si>
+    <t>1851-10-30</t>
+  </si>
+  <si>
+    <t>https://gw.geneanet.org/hoffman?lang=nl&amp;n=keuchenius&amp;oc=0&amp;p=levinus+wilhelmus+christiaan</t>
+  </si>
+  <si>
+    <t>Schiedam</t>
+  </si>
+  <si>
+    <t>1826-09-24</t>
+  </si>
+  <si>
+    <t>Batavia</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/frl:2f9a3b48-1ed5-db80-0198-5067b5683d20</t>
+  </si>
+  <si>
+    <t>1855-06-19</t>
+  </si>
+  <si>
+    <t>https://www.openarch.nl/search.php?name=Yfke+Egberts+Kijlstra</t>
+  </si>
+  <si>
+    <t>Ternaard</t>
+  </si>
+  <si>
+    <t>1849-01-05</t>
+  </si>
+  <si>
+    <t>https://www.geni.com/people/Geertruida-Elisabeth-Cornelia-Lingeman/6000000024713517901</t>
+  </si>
+  <si>
+    <t>Vrouw gestorven in 1915</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogische-gegevens-tilburg-goirle/I564372.php</t>
+  </si>
+  <si>
+    <t>1882-07-28</t>
+  </si>
+  <si>
+    <t>https://www.genealogieonline.nl/genealogische-gegevens-tilburg-goirle/I564373.php</t>
+  </si>
+  <si>
+    <t>1894-05-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3995,6 +4193,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4021,11 +4226,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4345,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCA590D-D655-0D41-8189-7502BFDA6186}">
-  <dimension ref="A1:O264"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4366,9 +4572,10 @@
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4598,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4400,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -4409,27 +4616,30 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1208</v>
+        <v>1338</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>1203</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -4441,35 +4651,38 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2">
+        <v>8036.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -4478,13 +4691,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -4493,15 +4706,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J4" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -4513,36 +4726,51 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="I5" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -4551,18 +4779,18 @@
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="J6" t="s">
         <v>973</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -4574,47 +4802,68 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G7" t="s">
+        <v>980</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="G7" t="s">
-        <v>981</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>983</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M8">
+        <v>5273.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F8">
-        <v>1864</v>
-      </c>
-      <c r="G8" t="s">
-        <v>984</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -4626,21 +4875,27 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G9" t="s">
+        <v>985</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="G9" t="s">
-        <v>987</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -4652,12 +4907,30 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
@@ -4672,9 +4945,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -4683,24 +4956,33 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G12" t="s">
+        <v>987</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="G12" t="s">
-        <v>989</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -4709,32 +4991,32 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -4746,24 +5028,33 @@
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G15" t="s">
+        <v>990</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J15" t="s">
+        <v>990</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="L15">
+        <v>92079.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="G15" t="s">
-        <v>992</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -4775,21 +5066,27 @@
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G16" t="s">
+        <v>994</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="G16" t="s">
-        <v>996</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -4798,27 +5095,36 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>992</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -4830,12 +5136,27 @@
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18">
+        <v>1816</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
@@ -4844,41 +5165,53 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G19" t="s">
+        <v>999</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L19">
+        <v>-22697.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -4887,49 +5220,49 @@
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -4938,24 +5271,24 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -4964,41 +5297,44 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="L25">
+        <v>44277.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
@@ -5010,18 +5346,18 @@
         <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
@@ -5033,21 +5369,33 @@
         <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -5059,83 +5407,98 @@
         <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F29">
         <v>1846</v>
       </c>
       <c r="G29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>1011</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
@@ -5147,13 +5510,13 @@
         <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -5162,33 +5525,36 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M34">
+        <v>194210.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -5197,56 +5563,65 @@
         <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K36" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K36" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -5258,30 +5633,33 @@
         <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G37" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J37" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37">
+        <v>1257658.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -5293,13 +5671,13 @@
         <v>71</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
@@ -5311,13 +5689,13 @@
         <v>71</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>73</v>
@@ -5329,56 +5707,68 @@
         <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L41">
+        <v>23507.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>76</v>
@@ -5390,24 +5780,33 @@
         <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K42" t="s">
+        <v>992</v>
+      </c>
+      <c r="M42">
+        <v>74538.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K42" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>78</v>
@@ -5416,697 +5815,751 @@
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>1344</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M45">
+        <v>33928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G47" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="J47" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G48" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="J48" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J52" t="s">
         <v>1069</v>
       </c>
-      <c r="G51" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="K52" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="L52">
+        <v>1983.76</v>
+      </c>
+      <c r="M52">
+        <v>10476.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L53">
+        <v>238498.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F53" t="s">
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I54" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J54" t="s">
         <v>1082</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G55" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="J55" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55">
+        <v>1208.71</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G57" t="s">
         <v>1092</v>
       </c>
-      <c r="G56" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J57" t="s">
         <v>1094</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="G57" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="J58" t="s">
         <v>1099</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="L58">
+        <v>9929219.0600000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G59" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="J59" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="G64" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="J64" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="G65" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="J65" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>16</v>
@@ -6115,147 +6568,147 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="G67" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="J67" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="G68" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="J68" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="G69" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="G70" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="J70" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>16</v>
@@ -6264,16 +6717,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>16</v>
@@ -6282,48 +6735,48 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G73" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="J73" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>16</v>
@@ -6332,16 +6785,16 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>16</v>
@@ -6350,16 +6803,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
@@ -6368,16 +6821,16 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>16</v>
@@ -6386,22 +6839,22 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>16</v>
@@ -6410,16 +6863,16 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>16</v>
@@ -6428,48 +6881,48 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G81" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="J81" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>16</v>
@@ -6478,72 +6931,72 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G83" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="J83" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="K83" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="G84" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="J84" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="M84">
         <v>1025136.75</v>
@@ -6551,16 +7004,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>16</v>
@@ -6569,37 +7022,37 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="G86" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="J86" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L86">
         <v>71015.22</v>
@@ -6607,107 +7060,107 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="F87" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J87" t="s">
         <v>1168</v>
       </c>
-      <c r="G87" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1173</v>
-      </c>
       <c r="K87" s="1" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="G88" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="J88" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="G89" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="J89" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M89">
         <v>199414.57</v>
@@ -6715,86 +7168,86 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="G90" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>1182</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="J90" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="G91" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="J91" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>16</v>
@@ -6802,80 +7255,80 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="F93" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="G94" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="J94" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>16</v>
@@ -6883,465 +7336,465 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F100">
         <v>1823</v>
       </c>
       <c r="G100" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="J100" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1206</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1207</v>
-      </c>
-      <c r="O102" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="F103">
         <v>1853</v>
       </c>
       <c r="G103" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="J103" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="K103" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="F105">
         <v>1875</v>
       </c>
       <c r="G105" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="J105" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="K105" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="B107" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G108" t="s">
         <v>1223</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J107" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1228</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="J108" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="L108">
         <v>83735.58</v>
       </c>
-      <c r="N108" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="O108" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="G110" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="J110" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="L110">
         <v>169512.84</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="G111" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>1242</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="J111" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
@@ -7349,176 +7802,176 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="G113" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="J113" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="G114" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="J114" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G115" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J116" t="s">
         <v>1254</v>
       </c>
-      <c r="G116" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1259</v>
-      </c>
       <c r="K116" s="1" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="F117">
         <v>1907</v>
       </c>
       <c r="G117" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="J117" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>16</v>
@@ -7526,63 +7979,63 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="F119">
         <v>1847</v>
       </c>
       <c r="G119" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="G120" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="J120" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="L120">
         <v>14697.36</v>
@@ -7590,86 +8043,86 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="F121" s="1" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="G121" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="J121" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="G122" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="J122" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>16</v>
@@ -7677,37 +8130,37 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="G124" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="J124" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="M124">
         <v>701699.13</v>
@@ -7715,16 +8168,16 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>16</v>
@@ -7732,37 +8185,37 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="G126" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="J126" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="M126">
         <v>53898.67</v>
@@ -7770,28 +8223,28 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="I127" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="J127" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="K127" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -7799,339 +8252,396 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>16</v>
@@ -8139,16 +8649,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>16</v>
@@ -8156,118 +8666,118 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>16</v>
@@ -8275,50 +8785,50 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>16</v>
@@ -8326,203 +8836,203 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
@@ -8530,67 +9040,67 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>16</v>
@@ -8598,33 +9108,33 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>16</v>
@@ -8632,33 +9142,33 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>16</v>
@@ -8666,118 +9176,118 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>16</v>
@@ -8785,135 +9295,135 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>16</v>
@@ -8921,33 +9431,33 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>16</v>
@@ -8955,16 +9465,16 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>16</v>
@@ -8972,50 +9482,50 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
@@ -9023,33 +9533,33 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>16</v>
@@ -9057,16 +9567,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>16</v>
@@ -9074,50 +9584,50 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>16</v>
@@ -9125,16 +9635,16 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>16</v>
@@ -9142,16 +9652,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
@@ -9159,196 +9669,196 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D209" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E209" s="1" t="s">
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="210" spans="1:14">
-      <c r="A210" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="B210" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:15">
       <c r="A211" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
-      <c r="A212" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="213" spans="1:14">
-      <c r="A213" s="1" t="s">
-        <v>840</v>
-      </c>
       <c r="B213" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="214" spans="1:14">
-      <c r="A214" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="B214" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:15">
       <c r="A215" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14">
-      <c r="A216" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="F216" s="1" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="G216" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="J216" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="M216">
         <v>2440955.7400000002</v>
       </c>
-      <c r="N216" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+      <c r="O216" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -9357,59 +9867,61 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-    </row>
-    <row r="218" spans="1:14">
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="F218" s="1" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
-    </row>
-    <row r="219" spans="1:14">
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -9418,22 +9930,23 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
-    </row>
-    <row r="220" spans="1:14">
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -9442,22 +9955,23 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
-    </row>
-    <row r="221" spans="1:14">
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -9466,22 +9980,23 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-    </row>
-    <row r="222" spans="1:14">
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -9490,19 +10005,20 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
-    </row>
-    <row r="223" spans="1:14">
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>16</v>
@@ -9514,19 +10030,20 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
-    </row>
-    <row r="224" spans="1:14">
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>16</v>
@@ -9538,19 +10055,20 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>16</v>
@@ -9562,19 +10080,20 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>16</v>
@@ -9586,22 +10105,23 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -9610,22 +10130,23 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="1"/>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -9634,22 +10155,23 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -9658,22 +10180,23 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -9682,22 +10205,23 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D231" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -9706,257 +10230,258 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:14">
       <c r="A233" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="B234" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="A235" s="1" t="s">
+      <c r="B235" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="E235" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="A237" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="B237" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="E237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
-      <c r="A238" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="B238" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="E238" s="1" t="s">
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
-      <c r="A239" s="1" t="s">
+      <c r="B239" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="E239" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
-      <c r="A240" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>16</v>
@@ -9964,16 +10489,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>16</v>
@@ -9981,16 +10506,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>16</v>
@@ -9998,50 +10523,50 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>16</v>
@@ -10049,118 +10574,118 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -10168,33 +10693,33 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>16</v>
@@ -10202,33 +10727,33 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>16</v>
@@ -10236,36 +10761,36 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1409">
   <si>
     <t xml:space="preserve">polid</t>
   </si>
@@ -1366,6 +1366,9 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7037.php</t>
   </si>
   <si>
+    <t xml:space="preserve">vader waarschijnlijk in offline-kantoren</t>
+  </si>
+  <si>
     <t xml:space="preserve">00357</t>
   </si>
   <si>
@@ -1396,7 +1399,7 @@
     <t xml:space="preserve">Tiel?</t>
   </si>
   <si>
-    <t xml:space="preserve">1893-06-19</t>
+    <t xml:space="preserve">1838-06-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.openarch.nl/search.php?name=Jacoba+Hermanna+Verschoor</t>
@@ -1471,6 +1474,9 @@
     <t xml:space="preserve">https://www.geni.com/people/Martina-Margaretha-van-der-Zanden/6000000036788038314</t>
   </si>
   <si>
+    <t xml:space="preserve">61128,48</t>
+  </si>
+  <si>
     <t xml:space="preserve">00376</t>
   </si>
   <si>
@@ -1525,6 +1531,9 @@
     <t xml:space="preserve">Ginneken</t>
   </si>
   <si>
+    <t xml:space="preserve">11761,92</t>
+  </si>
+  <si>
     <t xml:space="preserve">00400</t>
   </si>
   <si>
@@ -1597,7 +1606,10 @@
     <t xml:space="preserve">1909</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.geni.com/people/Maria-Anne-Uyttenhooven/6000000013030283945</t>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-stoffels/I4148.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9865,05</t>
   </si>
   <si>
     <t xml:space="preserve">00417</t>
@@ -1921,6 +1933,9 @@
     <t xml:space="preserve">Velp</t>
   </si>
   <si>
+    <t xml:space="preserve">12147,62</t>
+  </si>
+  <si>
     <t xml:space="preserve">00520</t>
   </si>
   <si>
@@ -2080,10 +2095,16 @@
     <t xml:space="preserve">https://www.geni.com/people/Simon-Hingst/6000000025739092246</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.all-the-hingst.com/allthehingst/index.php?route=individual&amp;xref=X239&amp;ged=hingst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I73350938.php</t>
+    <t xml:space="preserve">1841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-griffioen-koster/I528208.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.all-the-hingst.com/allthehingst/index.php?route=individual&amp;xref=X239&amp;ged=hingst, https://www.genealogieonline.nl/stamboom-driessen/I73350938.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heeft een zus, Jacoba Huidekoper, doodgegaan in 1879: https://www.genealogieonline.nl/stamboom-jellema/I209204.php</t>
   </si>
   <si>
     <t xml:space="preserve">00584</t>
@@ -2821,6 +2842,21 @@
     <t xml:space="preserve">-17772,7492</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Gosling-Land/6000000022768834962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heerde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1907-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Antje-van-der-Meulen/6000000022768479511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franeker</t>
+  </si>
+  <si>
     <t xml:space="preserve">00796</t>
   </si>
   <si>
@@ -2833,6 +2869,18 @@
     <t xml:space="preserve">10170,7210</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Everardus-Hendrikus-van-Leeuwen/6000000032623532119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloemendaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1912-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Adriana-Maria-Theodora-Repelius/6000000032623532125</t>
+  </si>
+  <si>
     <t xml:space="preserve">00806</t>
   </si>
   <si>
@@ -2876,6 +2924,18 @@
   </si>
   <si>
     <t xml:space="preserve">102237,6349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-evertman/I36057.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1901-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Hemmina-Uilkens/6000000021196832046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneek</t>
   </si>
   <si>
     <t xml:space="preserve">00822</t>
@@ -4379,11 +4439,11 @@
   </sheetPr>
   <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G79" activeCellId="0" sqref="G79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
@@ -4396,7 +4456,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="13.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,19 +6343,22 @@
       <c r="K62" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="O62" s="0" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>30</v>
@@ -6304,86 +6367,86 @@
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>30</v>
@@ -6392,159 +6455,165 @@
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J67" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>479</v>
+      <c r="L67" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>30</v>
@@ -6553,66 +6622,75 @@
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>30</v>
@@ -6621,16 +6699,16 @@
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>30</v>
@@ -6639,16 +6717,16 @@
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>30</v>
@@ -6657,16 +6735,16 @@
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>30</v>
@@ -6675,22 +6753,22 @@
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
@@ -6699,16 +6777,16 @@
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>30</v>
@@ -6717,51 +6795,51 @@
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>30</v>
@@ -6770,72 +6848,72 @@
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>1025136.75</v>
@@ -6843,16 +6921,16 @@
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>30</v>
@@ -6861,37 +6939,37 @@
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L86" s="0" t="n">
         <v>71015.22</v>
@@ -6899,69 +6977,69 @@
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>123</v>
@@ -6969,34 +7047,34 @@
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>209</v>
@@ -7007,86 +7085,89 @@
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>30</v>
@@ -7094,34 +7175,34 @@
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>307</v>
@@ -7129,45 +7210,45 @@
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -7175,34 +7256,34 @@
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>63</v>
@@ -7210,33 +7291,33 @@
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -7244,16 +7325,16 @@
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
@@ -7261,109 +7342,115 @@
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>1823</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>684</v>
+        <v>689</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>691</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1853</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>156</v>
@@ -7371,16 +7458,16 @@
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>30</v>
@@ -7388,31 +7475,31 @@
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>1875</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>123</v>
@@ -7420,130 +7507,130 @@
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="L108" s="0" t="n">
         <v>83735.58</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>30</v>
@@ -7551,37 +7638,37 @@
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="L110" s="0" t="n">
         <v>169512.84</v>
@@ -7589,51 +7676,51 @@
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>30</v>
@@ -7641,63 +7728,63 @@
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>123</v>
@@ -7705,112 +7792,112 @@
     </row>
     <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1907</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>30</v>
@@ -7818,25 +7905,25 @@
     </row>
     <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>1847</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>36</v>
@@ -7844,37 +7931,37 @@
     </row>
     <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="L120" s="0" t="n">
         <v>14697.36</v>
@@ -7882,86 +7969,86 @@
     </row>
     <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>30</v>
@@ -7969,34 +8056,34 @@
     </row>
     <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>123</v>
@@ -8007,16 +8094,16 @@
     </row>
     <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>30</v>
@@ -8024,37 +8111,37 @@
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="M126" s="0" t="n">
         <v>53898.67</v>
@@ -8062,25 +8149,25 @@
     </row>
     <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>156</v>
@@ -8091,89 +8178,89 @@
     </row>
     <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="O129" s="0" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="P129" s="0" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>30</v>
@@ -8181,16 +8268,16 @@
     </row>
     <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>30</v>
@@ -8198,16 +8285,16 @@
     </row>
     <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>30</v>
@@ -8215,34 +8302,34 @@
     </row>
     <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>209</v>
@@ -8250,16 +8337,16 @@
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>30</v>
@@ -8267,16 +8354,16 @@
     </row>
     <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -8284,69 +8371,69 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="F136" s="4" t="n">
         <v>-7793</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="F137" s="4" t="n">
         <v>-6232</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>23</v>
@@ -8354,16 +8441,16 @@
     </row>
     <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>30</v>
@@ -8371,16 +8458,16 @@
     </row>
     <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>30</v>
@@ -8388,85 +8475,121 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="F140" s="4" t="n">
         <v>-15246</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>938</v>
+      </c>
+      <c r="F141" s="4" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>935</v>
+        <v>947</v>
+      </c>
+      <c r="F142" s="4" t="n">
+        <v>4817</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>30</v>
@@ -8474,67 +8597,85 @@
     </row>
     <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>950</v>
+        <v>966</v>
+      </c>
+      <c r="F146" s="4" t="n">
+        <v>-3028</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>30</v>
@@ -8542,16 +8683,16 @@
     </row>
     <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>30</v>
@@ -8559,118 +8700,118 @@
     </row>
     <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>964</v>
+        <v>984</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>972</v>
+        <v>992</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>975</v>
+        <v>995</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>30</v>
@@ -8678,50 +8819,50 @@
     </row>
     <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>30</v>
@@ -8729,203 +8870,203 @@
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1034</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>30</v>
@@ -8933,67 +9074,67 @@
     </row>
     <row r="171" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>30</v>
@@ -9001,33 +9142,33 @@
     </row>
     <row r="175" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>1057</v>
+        <v>1077</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>30</v>
@@ -9035,33 +9176,33 @@
     </row>
     <row r="177" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>30</v>
@@ -9069,118 +9210,118 @@
     </row>
     <row r="179" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1072</v>
+        <v>1092</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1076</v>
+        <v>1096</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1077</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1091</v>
+        <v>1111</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1092</v>
+        <v>1112</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>30</v>
@@ -9188,135 +9329,135 @@
     </row>
     <row r="186" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>1093</v>
+        <v>1113</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1094</v>
+        <v>1114</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1096</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1098</v>
+        <v>1118</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1104</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1107</v>
+        <v>1127</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1108</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>1109</v>
+        <v>1129</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1111</v>
+        <v>1131</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1112</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1114</v>
+        <v>1134</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1116</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>1117</v>
+        <v>1137</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1118</v>
+        <v>1138</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1119</v>
+        <v>1139</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1123</v>
+        <v>1143</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
@@ -9324,33 +9465,33 @@
     </row>
     <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1124</v>
+        <v>1144</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1129</v>
+        <v>1149</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -9358,16 +9499,16 @@
     </row>
     <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1131</v>
+        <v>1151</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1132</v>
+        <v>1152</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -9375,50 +9516,50 @@
     </row>
     <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1134</v>
+        <v>1154</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1135</v>
+        <v>1155</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1136</v>
+        <v>1156</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1137</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1139</v>
+        <v>1159</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1140</v>
+        <v>1160</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1141</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1142</v>
+        <v>1162</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1143</v>
+        <v>1163</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1144</v>
+        <v>1164</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
@@ -9426,33 +9567,33 @@
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1145</v>
+        <v>1165</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1146</v>
+        <v>1166</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1147</v>
+        <v>1167</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1148</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1149</v>
+        <v>1169</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1151</v>
+        <v>1171</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
@@ -9460,16 +9601,16 @@
     </row>
     <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1152</v>
+        <v>1172</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1153</v>
+        <v>1173</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1154</v>
+        <v>1174</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
@@ -9477,50 +9618,50 @@
     </row>
     <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1155</v>
+        <v>1175</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1156</v>
+        <v>1176</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1157</v>
+        <v>1177</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1158</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>1159</v>
+        <v>1179</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1162</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1164</v>
+        <v>1184</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1165</v>
+        <v>1185</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>30</v>
@@ -9528,16 +9669,16 @@
     </row>
     <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>1166</v>
+        <v>1186</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1168</v>
+        <v>1188</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>30</v>
@@ -9545,16 +9686,16 @@
     </row>
     <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>1169</v>
+        <v>1189</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>30</v>
@@ -9562,50 +9703,50 @@
     </row>
     <row r="208" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1175</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1175</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>1176</v>
+        <v>1196</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1177</v>
+        <v>1197</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>30</v>
@@ -9613,67 +9754,67 @@
     </row>
     <row r="211" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>1178</v>
+        <v>1198</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1179</v>
+        <v>1199</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1181</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>1182</v>
+        <v>1202</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1183</v>
+        <v>1203</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1184</v>
+        <v>1204</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1185</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>1186</v>
+        <v>1206</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1187</v>
+        <v>1207</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1188</v>
+        <v>1208</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1189</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1191</v>
+        <v>1211</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>30</v>
@@ -9681,77 +9822,77 @@
     </row>
     <row r="215" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1193</v>
+        <v>1213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1194</v>
+        <v>1214</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1195</v>
+        <v>1215</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1198</v>
+        <v>1218</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1201</v>
+        <v>1221</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>1202</v>
+        <v>1222</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>1203</v>
+        <v>1223</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>1202</v>
+        <v>1222</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>1203</v>
+        <v>1223</v>
       </c>
       <c r="M216" s="0" t="n">
         <v>2440955.74</v>
       </c>
       <c r="O216" s="0" t="s">
-        <v>1205</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1206</v>
+        <v>1226</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1207</v>
+        <v>1227</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1208</v>
+        <v>1228</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -9764,34 +9905,34 @@
     </row>
     <row r="218" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1211</v>
+        <v>1231</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1212</v>
+        <v>1232</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1213</v>
+        <v>1233</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1214</v>
+        <v>1234</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1215</v>
+        <v>1235</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1217</v>
+        <v>1237</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>123</v>
@@ -9802,19 +9943,19 @@
     </row>
     <row r="219" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -9827,19 +9968,19 @@
     </row>
     <row r="220" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -9852,19 +9993,19 @@
     </row>
     <row r="221" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>1226</v>
+        <v>1246</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1228</v>
+        <v>1248</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -9877,19 +10018,19 @@
     </row>
     <row r="222" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1231</v>
+        <v>1251</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1232</v>
+        <v>1252</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1233</v>
+        <v>1253</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -9902,16 +10043,16 @@
     </row>
     <row r="223" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1235</v>
+        <v>1255</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1236</v>
+        <v>1256</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>30</v>
@@ -9927,16 +10068,16 @@
     </row>
     <row r="224" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1237</v>
+        <v>1257</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1238</v>
+        <v>1258</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1239</v>
+        <v>1259</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>30</v>
@@ -9952,16 +10093,16 @@
     </row>
     <row r="225" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1240</v>
+        <v>1260</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1241</v>
+        <v>1261</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>30</v>
@@ -9977,16 +10118,16 @@
     </row>
     <row r="226" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1243</v>
+        <v>1263</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1244</v>
+        <v>1264</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1245</v>
+        <v>1265</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>30</v>
@@ -10002,19 +10143,19 @@
     </row>
     <row r="227" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1246</v>
+        <v>1266</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1247</v>
+        <v>1267</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1248</v>
+        <v>1268</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1249</v>
+        <v>1269</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -10027,19 +10168,19 @@
     </row>
     <row r="228" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>1250</v>
+        <v>1270</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1251</v>
+        <v>1271</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -10052,19 +10193,19 @@
     </row>
     <row r="229" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -10077,19 +10218,19 @@
     </row>
     <row r="230" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>1258</v>
+        <v>1278</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1259</v>
+        <v>1279</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -10102,19 +10243,19 @@
     </row>
     <row r="231" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>1262</v>
+        <v>1282</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1263</v>
+        <v>1283</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1264</v>
+        <v>1284</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1265</v>
+        <v>1285</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -10127,16 +10268,16 @@
     </row>
     <row r="232" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>1266</v>
+        <v>1286</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>30</v>
@@ -10144,237 +10285,237 @@
     </row>
     <row r="233" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1271</v>
+        <v>1291</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>1273</v>
+        <v>1293</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1274</v>
+        <v>1294</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1275</v>
+        <v>1295</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1276</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1288</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1291</v>
+        <v>1311</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1294</v>
+        <v>1314</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1296</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>1297</v>
+        <v>1317</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1299</v>
+        <v>1319</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1300</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>1301</v>
+        <v>1321</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1303</v>
+        <v>1323</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1304</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>1305</v>
+        <v>1325</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1306</v>
+        <v>1326</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1307</v>
+        <v>1327</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1308</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>1309</v>
+        <v>1329</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1312</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>1313</v>
+        <v>1333</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1314</v>
+        <v>1334</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1316</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>1317</v>
+        <v>1337</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1318</v>
+        <v>1338</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1320</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1323</v>
+        <v>1343</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>30</v>
@@ -10382,16 +10523,16 @@
     </row>
     <row r="247" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>30</v>
@@ -10399,16 +10540,16 @@
     </row>
     <row r="248" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>30</v>
@@ -10416,50 +10557,50 @@
     </row>
     <row r="249" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1333</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1334</v>
+        <v>1354</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1335</v>
+        <v>1355</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1336</v>
+        <v>1356</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1337</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1338</v>
+        <v>1358</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1339</v>
+        <v>1359</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>30</v>
@@ -10467,118 +10608,118 @@
     </row>
     <row r="252" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1343</v>
+        <v>1363</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1344</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1353</v>
+        <v>1373</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1363</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>1364</v>
+        <v>1384</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1365</v>
+        <v>1385</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1366</v>
+        <v>1386</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>30</v>
@@ -10586,33 +10727,33 @@
     </row>
     <row r="259" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1370</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>1371</v>
+        <v>1391</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1372</v>
+        <v>1392</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>30</v>
@@ -10620,33 +10761,33 @@
     </row>
     <row r="261" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>1374</v>
+        <v>1394</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>30</v>
@@ -10654,41 +10795,42 @@
     </row>
     <row r="263" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1384</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>1385</v>
+        <v>1405</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1386</v>
+        <v>1406</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1387</v>
+        <v>1407</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1388</v>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://www.openarch.nl/elo:b426756a-9121-8593-166e-f01bbd94ea75"/>
+    <hyperlink ref="P102" r:id="rId2" display="https://www.genealogieonline.nl/stamboom-jellema/I209204.php"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1487">
   <si>
     <t xml:space="preserve">polid</t>
   </si>
@@ -2968,6 +2968,21 @@
     <t xml:space="preserve">53429,0196</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Hendrikus-Loeff/6000000030140806939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baardwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1901-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Petronella-Johanna-Antonia-van-Heesbeen/6000000030140629489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42288,73</t>
+  </si>
+  <si>
     <t xml:space="preserve">00849</t>
   </si>
   <si>
@@ -2980,6 +2995,18 @@
     <t xml:space="preserve">152126,1469</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Lucas-Lucasse/6000000029804908919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'s-Heer Arendskerke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1874-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Maatje-Steketee/6000000029804975845</t>
+  </si>
+  <si>
     <t xml:space="preserve">00851</t>
   </si>
   <si>
@@ -2992,6 +3019,27 @@
     <t xml:space="preserve">112294,8860</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-familie-poort/I31173.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1849-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-familie-poort/I43107.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9635,78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zus in 1885 overleden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-familie-poort/I30824.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00858</t>
   </si>
   <si>
@@ -3004,6 +3052,18 @@
     <t xml:space="preserve">1892869,1358</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-baris/I87683.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neerlangbroek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1905-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-baris/I93420.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00862</t>
   </si>
   <si>
@@ -3016,6 +3076,21 @@
     <t xml:space="preserve">246824,8431</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Johan-Fran%C3%A7ois-Hendrik-Jacob-Ernestus-Mackay/6000000001462859290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Margaretha-Clara-Fran%C3%A7oise-van-Lynden/6000000017972316556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95125,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zus overleden 1896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-noya/R879.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00864</t>
   </si>
   <si>
@@ -3049,6 +3124,30 @@
     <t xml:space="preserve">302533,5184</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-mees/I1001449194.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-mees/I1001449206.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145719,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broer overleden in 1882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-mees/I1001449214.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00892</t>
   </si>
   <si>
@@ -3061,6 +3160,24 @@
     <t xml:space="preserve">36110,9615</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/fr/genealogy-family-fokker/I5388.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harderwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1884-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/fr/genealogy-family-fokker/I5472.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28021,75</t>
+  </si>
+  <si>
     <t xml:space="preserve">00902</t>
   </si>
   <si>
@@ -3082,6 +3199,18 @@
     <t xml:space="preserve">191278,5511</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Adriaan-De-Meijier/6000000037125903285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1872-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openarch.nl/gld:86DB1D28-9DDA-4A14-BD89-2A48C945534A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12798,06</t>
+  </si>
+  <si>
     <t xml:space="preserve">00925</t>
   </si>
   <si>
@@ -3091,6 +3220,21 @@
     <t xml:space="preserve">165127,2926</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-schutijser/I43982.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boskoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1900-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-schutijser/I43983.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baarn</t>
+  </si>
+  <si>
     <t xml:space="preserve">00930</t>
   </si>
   <si>
@@ -3103,6 +3247,21 @@
     <t xml:space="preserve">571428,9418</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I7358920.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1889-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I7358922.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2362,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeder overleden na hemzelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">00931</t>
   </si>
   <si>
@@ -3115,7 +3274,22 @@
     <t xml:space="preserve">1981,0675</t>
   </si>
   <si>
-    <t xml:space="preserve">Korens de Wijlre</t>
+    <t xml:space="preserve">https://www.geni.com/people/Antonij-Moens/6000000030940886985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Johanna-Lambert/6000000030940886991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverwijk (Memorie Utrecht?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerens de Wylre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1880-01-05</t>
   </si>
   <si>
     <t xml:space="preserve">00940</t>
@@ -3130,6 +3304,15 @@
     <t xml:space="preserve">42086,1433</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nl.wikipedia.org/wiki/Frederik_Herman_de_Mont%C3%A9_verLoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geneve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-baris/I102958.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00949</t>
   </si>
   <si>
@@ -3142,6 +3325,12 @@
     <t xml:space="preserve">34969,3941</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I73294384.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I73294386.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00951</t>
   </si>
   <si>
@@ -3154,6 +3343,27 @@
     <t xml:space="preserve">36292,9523</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogische-gegevens-tilburg-goirle/I169153.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogische-gegevens-tilburg-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eindhoven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125139,03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broer overleden in 1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogische-gegevens-tilburg-goirle/I169149.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00967</t>
   </si>
   <si>
@@ -3166,6 +3376,18 @@
     <t xml:space="preserve">129709,6883</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-willemse/I4395.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-willemse/I1757.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">945471,56</t>
+  </si>
+  <si>
     <t xml:space="preserve">00973</t>
   </si>
   <si>
@@ -3176,6 +3398,18 @@
   </si>
   <si>
     <t xml:space="preserve">512511,2609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I736148.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zevenaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I736115.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1716278,92</t>
   </si>
   <si>
     <t xml:space="preserve">00975</t>
@@ -4256,10 +4490,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -4338,7 +4573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4356,6 +4591,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4439,11 +4678,11 @@
   </sheetPr>
   <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L174" activeCellId="0" sqref="L174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
@@ -8698,7 +8937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>977</v>
       </c>
@@ -8714,180 +8953,387 @@
       <c r="E149" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="4" t="n">
+        <v>-7291</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="L149" s="0" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>989</v>
+      </c>
+      <c r="F150" s="4" t="n">
+        <v>-797</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>997</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>-14716</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O151" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P151" s="0" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1008</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>-5165</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1016</v>
+      </c>
+      <c r="F153" s="4" t="n">
+        <v>-19514</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P153" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1000</v>
+        <v>1025</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>-19514</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O154" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P154" s="0" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1032</v>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>-12144</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P156" s="0" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1011</v>
+        <v>1044</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>-13086</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M157" s="0" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1012</v>
+        <v>1051</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1013</v>
+        <v>1052</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1014</v>
+        <v>1053</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1016</v>
+        <v>1055</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1017</v>
+        <v>1056</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1057</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>-6529</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L159" s="0" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1019</v>
+        <v>1062</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>467</v>
@@ -8896,245 +9342,428 @@
         <v>18</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1020</v>
+        <v>1063</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1064</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>-18253</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1022</v>
+        <v>1070</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1023</v>
+        <v>1071</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1024</v>
+        <v>1072</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>-21474</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="M161" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1026</v>
+        <v>1079</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1027</v>
+        <v>1080</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1028</v>
+        <v>1081</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1082</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>-10983</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I162" s="4" t="n">
+        <v>-7486</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1026</v>
+        <v>1086</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1088</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1031</v>
+        <v>1089</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1032</v>
+        <v>1090</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>-3601</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I164" s="4" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J164" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1035</v>
+        <v>1096</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1036</v>
+        <v>1097</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1037</v>
+        <v>1098</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1099</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>-3776</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I165" s="4" t="n">
+        <v>8088</v>
+      </c>
+      <c r="J165" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1039</v>
+        <v>1102</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1040</v>
+        <v>1103</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1041</v>
+        <v>1104</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1105</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>-9993</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I166" s="4" t="n">
+        <v>-23980</v>
+      </c>
+      <c r="J166" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N166" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="O166" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P166" s="0" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1043</v>
+        <v>1113</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1044</v>
+        <v>1114</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1045</v>
+        <v>1115</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1116</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>-2832</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I167" s="4" t="n">
+        <v>7357</v>
+      </c>
+      <c r="J167" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="M167" s="0" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1047</v>
+        <v>1121</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1048</v>
+        <v>1122</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1049</v>
+        <v>1123</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1124</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>-9005</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I168" s="4" t="n">
+        <v>-7641</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M168" s="0" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1051</v>
+        <v>1129</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1052</v>
+        <v>1130</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1053</v>
+        <v>1131</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1132</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1055</v>
+        <v>1133</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1056</v>
+        <v>1134</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1057</v>
+        <v>1135</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1058</v>
+        <v>1136</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1059</v>
+        <v>1137</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1060</v>
+        <v>1138</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1139</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1062</v>
+        <v>1140</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1063</v>
+        <v>1141</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1064</v>
+        <v>1142</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1065</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
     </row>
     <row r="173" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>1066</v>
+        <v>1144</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1067</v>
+        <v>1145</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1068</v>
+        <v>1146</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1069</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>1070</v>
+        <v>1148</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1071</v>
+        <v>1149</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1072</v>
+        <v>1150</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>30</v>
@@ -9142,33 +9771,33 @@
     </row>
     <row r="175" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>1073</v>
+        <v>1151</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1074</v>
+        <v>1152</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1075</v>
+        <v>1153</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1076</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>1077</v>
+        <v>1155</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1074</v>
+        <v>1152</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1078</v>
+        <v>1156</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>30</v>
@@ -9176,33 +9805,33 @@
     </row>
     <row r="177" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>1079</v>
+        <v>1157</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1080</v>
+        <v>1158</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1081</v>
+        <v>1159</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1082</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>1083</v>
+        <v>1161</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1084</v>
+        <v>1162</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1085</v>
+        <v>1163</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>30</v>
@@ -9210,118 +9839,118 @@
     </row>
     <row r="179" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>1086</v>
+        <v>1164</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1087</v>
+        <v>1165</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1088</v>
+        <v>1166</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1089</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1090</v>
+        <v>1168</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1091</v>
+        <v>1169</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1092</v>
+        <v>1170</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1093</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1094</v>
+        <v>1172</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1095</v>
+        <v>1173</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1096</v>
+        <v>1174</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1097</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1098</v>
+        <v>1176</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1099</v>
+        <v>1177</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1100</v>
+        <v>1178</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1101</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1102</v>
+        <v>1180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1103</v>
+        <v>1181</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1104</v>
+        <v>1182</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1105</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1106</v>
+        <v>1184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1107</v>
+        <v>1185</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1108</v>
+        <v>1186</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1109</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1110</v>
+        <v>1188</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1111</v>
+        <v>1189</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1112</v>
+        <v>1190</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>30</v>
@@ -9329,135 +9958,135 @@
     </row>
     <row r="186" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>1113</v>
+        <v>1191</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1114</v>
+        <v>1192</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1115</v>
+        <v>1193</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1116</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1117</v>
+        <v>1195</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1118</v>
+        <v>1196</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1119</v>
+        <v>1197</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1120</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>1121</v>
+        <v>1199</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1122</v>
+        <v>1200</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1123</v>
+        <v>1201</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1124</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>1125</v>
+        <v>1203</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1126</v>
+        <v>1204</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1127</v>
+        <v>1205</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1128</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>1129</v>
+        <v>1207</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1130</v>
+        <v>1208</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1131</v>
+        <v>1209</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1132</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>1133</v>
+        <v>1211</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1134</v>
+        <v>1212</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1135</v>
+        <v>1213</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1136</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>1137</v>
+        <v>1215</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1138</v>
+        <v>1216</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1139</v>
+        <v>1217</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1140</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>1141</v>
+        <v>1219</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1142</v>
+        <v>1220</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1143</v>
+        <v>1221</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
@@ -9465,33 +10094,33 @@
     </row>
     <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1144</v>
+        <v>1222</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1145</v>
+        <v>1223</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1146</v>
+        <v>1224</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1147</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1148</v>
+        <v>1226</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1149</v>
+        <v>1227</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1150</v>
+        <v>1228</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -9499,16 +10128,16 @@
     </row>
     <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1151</v>
+        <v>1229</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1152</v>
+        <v>1230</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1153</v>
+        <v>1231</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -9516,50 +10145,50 @@
     </row>
     <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1154</v>
+        <v>1232</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1155</v>
+        <v>1233</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1156</v>
+        <v>1234</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1157</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1158</v>
+        <v>1236</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1159</v>
+        <v>1237</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1160</v>
+        <v>1238</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1161</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1162</v>
+        <v>1240</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1163</v>
+        <v>1241</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1164</v>
+        <v>1242</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
@@ -9567,33 +10196,33 @@
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1165</v>
+        <v>1243</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1166</v>
+        <v>1244</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1167</v>
+        <v>1245</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1168</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1169</v>
+        <v>1247</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1170</v>
+        <v>1248</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1171</v>
+        <v>1249</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
@@ -9601,16 +10230,16 @@
     </row>
     <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1172</v>
+        <v>1250</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1173</v>
+        <v>1251</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1174</v>
+        <v>1252</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
@@ -9618,50 +10247,50 @@
     </row>
     <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1175</v>
+        <v>1253</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1176</v>
+        <v>1254</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1177</v>
+        <v>1255</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1178</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>1179</v>
+        <v>1257</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1180</v>
+        <v>1258</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1181</v>
+        <v>1259</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1182</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>1183</v>
+        <v>1261</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1184</v>
+        <v>1262</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1185</v>
+        <v>1263</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>30</v>
@@ -9669,16 +10298,16 @@
     </row>
     <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>1186</v>
+        <v>1264</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1187</v>
+        <v>1265</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1188</v>
+        <v>1266</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>30</v>
@@ -9686,16 +10315,16 @@
     </row>
     <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>1189</v>
+        <v>1267</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1190</v>
+        <v>1268</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1191</v>
+        <v>1269</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>30</v>
@@ -9703,50 +10332,50 @@
     </row>
     <row r="208" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1192</v>
+        <v>1270</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1193</v>
+        <v>1271</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1194</v>
+        <v>1272</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1195</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>1192</v>
+        <v>1270</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1190</v>
+        <v>1268</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1194</v>
+        <v>1272</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1195</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>1196</v>
+        <v>1274</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1193</v>
+        <v>1271</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1197</v>
+        <v>1275</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>30</v>
@@ -9754,67 +10383,67 @@
     </row>
     <row r="211" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>1198</v>
+        <v>1276</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1199</v>
+        <v>1277</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1200</v>
+        <v>1278</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1201</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>1202</v>
+        <v>1280</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1203</v>
+        <v>1281</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1204</v>
+        <v>1282</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1205</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>1206</v>
+        <v>1284</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1207</v>
+        <v>1285</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1208</v>
+        <v>1286</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1209</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1210</v>
+        <v>1288</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1211</v>
+        <v>1289</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1212</v>
+        <v>1290</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>30</v>
@@ -9822,77 +10451,77 @@
     </row>
     <row r="215" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1213</v>
+        <v>1291</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1214</v>
+        <v>1292</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1215</v>
+        <v>1293</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1216</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1217</v>
+        <v>1295</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1218</v>
+        <v>1296</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1219</v>
+        <v>1297</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1220</v>
+        <v>1298</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1221</v>
+        <v>1299</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>1222</v>
+        <v>1300</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>1223</v>
+        <v>1301</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1224</v>
+        <v>1302</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>1222</v>
+        <v>1300</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>1223</v>
+        <v>1301</v>
       </c>
       <c r="M216" s="0" t="n">
         <v>2440955.74</v>
       </c>
       <c r="O216" s="0" t="s">
-        <v>1225</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1226</v>
+        <v>1304</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1227</v>
+        <v>1305</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1228</v>
+        <v>1306</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1229</v>
+        <v>1307</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -9905,34 +10534,34 @@
     </row>
     <row r="218" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1230</v>
+        <v>1308</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1231</v>
+        <v>1309</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1232</v>
+        <v>1310</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1233</v>
+        <v>1311</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1234</v>
+        <v>1312</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1235</v>
+        <v>1313</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1236</v>
+        <v>1314</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1237</v>
+        <v>1315</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>123</v>
@@ -9943,19 +10572,19 @@
     </row>
     <row r="219" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>1238</v>
+        <v>1316</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1239</v>
+        <v>1317</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1240</v>
+        <v>1318</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1241</v>
+        <v>1319</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -9968,19 +10597,19 @@
     </row>
     <row r="220" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>1242</v>
+        <v>1320</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1243</v>
+        <v>1321</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1244</v>
+        <v>1322</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1245</v>
+        <v>1323</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -9993,19 +10622,19 @@
     </row>
     <row r="221" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>1246</v>
+        <v>1324</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1247</v>
+        <v>1325</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1248</v>
+        <v>1326</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1249</v>
+        <v>1327</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -10018,19 +10647,19 @@
     </row>
     <row r="222" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1250</v>
+        <v>1328</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1251</v>
+        <v>1329</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1252</v>
+        <v>1330</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1253</v>
+        <v>1331</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -10043,16 +10672,16 @@
     </row>
     <row r="223" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>1254</v>
+        <v>1332</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1255</v>
+        <v>1333</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1256</v>
+        <v>1334</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>30</v>
@@ -10068,16 +10697,16 @@
     </row>
     <row r="224" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1257</v>
+        <v>1335</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1258</v>
+        <v>1336</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1259</v>
+        <v>1337</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>30</v>
@@ -10093,16 +10722,16 @@
     </row>
     <row r="225" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1260</v>
+        <v>1338</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1261</v>
+        <v>1339</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1262</v>
+        <v>1340</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>30</v>
@@ -10118,16 +10747,16 @@
     </row>
     <row r="226" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1263</v>
+        <v>1341</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1264</v>
+        <v>1342</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1265</v>
+        <v>1343</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>30</v>
@@ -10143,19 +10772,19 @@
     </row>
     <row r="227" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1266</v>
+        <v>1344</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1267</v>
+        <v>1345</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1268</v>
+        <v>1346</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1269</v>
+        <v>1347</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -10168,19 +10797,19 @@
     </row>
     <row r="228" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>1270</v>
+        <v>1348</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1271</v>
+        <v>1349</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1272</v>
+        <v>1350</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1273</v>
+        <v>1351</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -10193,19 +10822,19 @@
     </row>
     <row r="229" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>1274</v>
+        <v>1352</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1275</v>
+        <v>1353</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1277</v>
+        <v>1355</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -10218,19 +10847,19 @@
     </row>
     <row r="230" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>1278</v>
+        <v>1356</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1279</v>
+        <v>1357</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1280</v>
+        <v>1358</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1281</v>
+        <v>1359</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -10243,19 +10872,19 @@
     </row>
     <row r="231" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>1282</v>
+        <v>1360</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1283</v>
+        <v>1361</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1284</v>
+        <v>1362</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1285</v>
+        <v>1363</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -10268,16 +10897,16 @@
     </row>
     <row r="232" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>1286</v>
+        <v>1364</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1287</v>
+        <v>1365</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1288</v>
+        <v>1366</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>30</v>
@@ -10285,237 +10914,237 @@
     </row>
     <row r="233" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>1289</v>
+        <v>1367</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1290</v>
+        <v>1368</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1291</v>
+        <v>1369</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1292</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>1293</v>
+        <v>1371</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1294</v>
+        <v>1372</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1295</v>
+        <v>1373</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1296</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>1297</v>
+        <v>1375</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1298</v>
+        <v>1376</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1299</v>
+        <v>1377</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1300</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>1301</v>
+        <v>1379</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1302</v>
+        <v>1380</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1303</v>
+        <v>1381</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1304</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>1305</v>
+        <v>1383</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1306</v>
+        <v>1384</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1307</v>
+        <v>1385</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1308</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>1309</v>
+        <v>1387</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1310</v>
+        <v>1388</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1311</v>
+        <v>1389</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1312</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>1313</v>
+        <v>1391</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1314</v>
+        <v>1392</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1315</v>
+        <v>1393</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1316</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>1317</v>
+        <v>1395</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1318</v>
+        <v>1396</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1319</v>
+        <v>1397</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1320</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>1321</v>
+        <v>1399</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1322</v>
+        <v>1400</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1323</v>
+        <v>1401</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1324</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>1325</v>
+        <v>1403</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1326</v>
+        <v>1404</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1327</v>
+        <v>1405</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1328</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>1329</v>
+        <v>1407</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1330</v>
+        <v>1408</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1331</v>
+        <v>1409</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1332</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>1333</v>
+        <v>1411</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1334</v>
+        <v>1412</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1335</v>
+        <v>1413</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1336</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>1337</v>
+        <v>1415</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1338</v>
+        <v>1416</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1339</v>
+        <v>1417</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1340</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>1341</v>
+        <v>1419</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1342</v>
+        <v>1420</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1343</v>
+        <v>1421</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>30</v>
@@ -10523,16 +11152,16 @@
     </row>
     <row r="247" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1344</v>
+        <v>1422</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1345</v>
+        <v>1423</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1346</v>
+        <v>1424</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>30</v>
@@ -10540,16 +11169,16 @@
     </row>
     <row r="248" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1347</v>
+        <v>1425</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1348</v>
+        <v>1426</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1349</v>
+        <v>1427</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>30</v>
@@ -10557,50 +11186,50 @@
     </row>
     <row r="249" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1350</v>
+        <v>1428</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1352</v>
+        <v>1430</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1353</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1354</v>
+        <v>1432</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1355</v>
+        <v>1433</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1356</v>
+        <v>1434</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1357</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1358</v>
+        <v>1436</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1359</v>
+        <v>1437</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>30</v>
@@ -10608,118 +11237,118 @@
     </row>
     <row r="252" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1361</v>
+        <v>1439</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1362</v>
+        <v>1440</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1363</v>
+        <v>1441</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1364</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1365</v>
+        <v>1443</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1366</v>
+        <v>1444</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1367</v>
+        <v>1445</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1368</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1369</v>
+        <v>1447</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1370</v>
+        <v>1448</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1371</v>
+        <v>1449</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1372</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1373</v>
+        <v>1451</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1374</v>
+        <v>1452</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1375</v>
+        <v>1453</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1376</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1377</v>
+        <v>1455</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1374</v>
+        <v>1452</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1378</v>
+        <v>1456</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1379</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1380</v>
+        <v>1458</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1381</v>
+        <v>1459</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1382</v>
+        <v>1460</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1383</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>1384</v>
+        <v>1462</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1385</v>
+        <v>1463</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1386</v>
+        <v>1464</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>30</v>
@@ -10727,33 +11356,33 @@
     </row>
     <row r="259" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>1387</v>
+        <v>1465</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1388</v>
+        <v>1466</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1389</v>
+        <v>1467</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1390</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>1391</v>
+        <v>1469</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1392</v>
+        <v>1470</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1393</v>
+        <v>1471</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>30</v>
@@ -10761,33 +11390,33 @@
     </row>
     <row r="261" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>1394</v>
+        <v>1472</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1395</v>
+        <v>1473</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1396</v>
+        <v>1474</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1397</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1398</v>
+        <v>1476</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1399</v>
+        <v>1477</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1400</v>
+        <v>1478</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>30</v>
@@ -10795,42 +11424,42 @@
     </row>
     <row r="263" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>1401</v>
+        <v>1479</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1402</v>
+        <v>1480</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1403</v>
+        <v>1481</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1404</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>1405</v>
+        <v>1483</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1406</v>
+        <v>1484</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1407</v>
+        <v>1485</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1408</v>
+        <v>1486</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://www.openarch.nl/elo:b426756a-9121-8593-166e-f01bbd94ea75"/>
-    <hyperlink ref="P102" r:id="rId2" display="https://www.genealogieonline.nl/stamboom-jellema/I209204.php"/>
+    <hyperlink ref="P102" r:id="rId2" display="Heeft een zus, Jacoba Huidekoper, doodgegaan in 1879: https://www.genealogieonline.nl/stamboom-jellema/I209204.php"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="instrumental_variable_wealth_par_1" vbProcedure="false">Sheet1!$A$1:$M$264</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="instrumental_variable_wealth_par_1" vbProcedure="false">Sheet1!$A$1:$M$263</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1517">
   <si>
     <t xml:space="preserve">polid</t>
   </si>
@@ -451,12 +451,15 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I6805.php</t>
   </si>
   <si>
+    <t xml:space="preserve">2145671.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00088</t>
+  </si>
+  <si>
     <t xml:space="preserve">1834564,9532</t>
   </si>
   <si>
-    <t xml:space="preserve">00088</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I6804.php</t>
   </si>
   <si>
@@ -1474,9 +1477,6 @@
     <t xml:space="preserve">https://www.geni.com/people/Martina-Margaretha-van-der-Zanden/6000000036788038314</t>
   </si>
   <si>
-    <t xml:space="preserve">61128,48</t>
-  </si>
-  <si>
     <t xml:space="preserve">00376</t>
   </si>
   <si>
@@ -1501,9 +1501,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/en/genealogie-koek/I51769.php</t>
   </si>
   <si>
-    <t xml:space="preserve">34586,50</t>
-  </si>
-  <si>
     <t xml:space="preserve">00397</t>
   </si>
   <si>
@@ -1531,9 +1528,6 @@
     <t xml:space="preserve">Ginneken</t>
   </si>
   <si>
-    <t xml:space="preserve">11761,92</t>
-  </si>
-  <si>
     <t xml:space="preserve">00400</t>
   </si>
   <si>
@@ -1558,9 +1552,6 @@
     <t xml:space="preserve">1862</t>
   </si>
   <si>
-    <t xml:space="preserve">160761,62</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heeft een broer die in 1904 is doodgegaan</t>
   </si>
   <si>
@@ -1609,9 +1600,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-stoffels/I4148.php</t>
   </si>
   <si>
-    <t xml:space="preserve">-9865,05</t>
-  </si>
-  <si>
     <t xml:space="preserve">00417</t>
   </si>
   <si>
@@ -1696,9 +1684,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-onvlee/I1076.php</t>
   </si>
   <si>
-    <t xml:space="preserve">2367,00</t>
-  </si>
-  <si>
     <t xml:space="preserve">00450</t>
   </si>
   <si>
@@ -1933,9 +1918,6 @@
     <t xml:space="preserve">Velp</t>
   </si>
   <si>
-    <t xml:space="preserve">12147,62</t>
-  </si>
-  <si>
     <t xml:space="preserve">00520</t>
   </si>
   <si>
@@ -2359,6 +2341,9 @@
     <t xml:space="preserve">https://www.openarch.nl/rzh:c478a813-5a08-4c87-87c8-4096e63d03b5/en</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.openarch.nl/search.php?top&amp;name=Joannes+Cornelius+Adrianus+Jansen&amp;number_show=10&amp;sort=4&amp;start=20</t>
+  </si>
+  <si>
     <t xml:space="preserve">00638</t>
   </si>
   <si>
@@ -2497,10 +2482,10 @@
     <t xml:space="preserve">Alkmaar</t>
   </si>
   <si>
-    <t xml:space="preserve">1879-12-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openarch.nl/search.php?top&amp;name=Jannetje+Dorreman&amp;number_show=10&amp;sort=1&amp;start=20</t>
+    <t xml:space="preserve">1847-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openarch.nl/search.php?name=Jannetje+Dorreman&amp;number_show=10&amp;sort=4</t>
   </si>
   <si>
     <t xml:space="preserve">00671</t>
@@ -2980,9 +2965,6 @@
     <t xml:space="preserve">https://www.geni.com/people/Petronella-Johanna-Antonia-van-Heesbeen/6000000030140629489</t>
   </si>
   <si>
-    <t xml:space="preserve">42288,73</t>
-  </si>
-  <si>
     <t xml:space="preserve">00849</t>
   </si>
   <si>
@@ -3031,9 +3013,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-familie-poort/I43107.php</t>
   </si>
   <si>
-    <t xml:space="preserve">9635,78</t>
-  </si>
-  <si>
     <t xml:space="preserve">zus in 1885 overleden</t>
   </si>
   <si>
@@ -3082,9 +3061,6 @@
     <t xml:space="preserve">https://www.geni.com/people/Margaretha-Clara-Fran%C3%A7oise-van-Lynden/6000000017972316556</t>
   </si>
   <si>
-    <t xml:space="preserve">95125,32</t>
-  </si>
-  <si>
     <t xml:space="preserve">zus overleden 1896</t>
   </si>
   <si>
@@ -3139,9 +3115,6 @@
     <t xml:space="preserve">Rheden</t>
   </si>
   <si>
-    <t xml:space="preserve">145719,99</t>
-  </si>
-  <si>
     <t xml:space="preserve">broer overleden in 1882</t>
   </si>
   <si>
@@ -3175,9 +3148,6 @@
     <t xml:space="preserve">Voorst</t>
   </si>
   <si>
-    <t xml:space="preserve">28021,75</t>
-  </si>
-  <si>
     <t xml:space="preserve">00902</t>
   </si>
   <si>
@@ -3208,9 +3178,6 @@
     <t xml:space="preserve">https://www.openarch.nl/gld:86DB1D28-9DDA-4A14-BD89-2A48C945534A</t>
   </si>
   <si>
-    <t xml:space="preserve">12798,06</t>
-  </si>
-  <si>
     <t xml:space="preserve">00925</t>
   </si>
   <si>
@@ -3256,9 +3223,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I7358922.php</t>
   </si>
   <si>
-    <t xml:space="preserve">2362,21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moeder overleden na hemzelf</t>
   </si>
   <si>
@@ -3355,9 +3319,6 @@
     <t xml:space="preserve">Eindhoven</t>
   </si>
   <si>
-    <t xml:space="preserve">125139,03</t>
-  </si>
-  <si>
     <t xml:space="preserve">broer overleden in 1895</t>
   </si>
   <si>
@@ -3385,9 +3346,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-willemse/I1757.php</t>
   </si>
   <si>
-    <t xml:space="preserve">945471,56</t>
-  </si>
-  <si>
     <t xml:space="preserve">00973</t>
   </si>
   <si>
@@ -3409,9 +3367,6 @@
     <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I736115.php</t>
   </si>
   <si>
-    <t xml:space="preserve">1716278,92</t>
-  </si>
-  <si>
     <t xml:space="preserve">00975</t>
   </si>
   <si>
@@ -3424,6 +3379,15 @@
     <t xml:space="preserve">910006,5850</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-richard-remme/I371168.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-richard-remme/I371169.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnhem?</t>
+  </si>
+  <si>
     <t xml:space="preserve">00977</t>
   </si>
   <si>
@@ -3445,6 +3409,15 @@
     <t xml:space="preserve">5010,2110</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-nicolai-kolb/I11309810.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-nicolai-kolb/I70449568.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">00998</t>
   </si>
   <si>
@@ -3457,6 +3430,15 @@
     <t xml:space="preserve">136267,3763</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nl.wikipedia.org/wiki/Sibrand_Gratama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-ocken/I16299.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01003</t>
   </si>
   <si>
@@ -3490,6 +3472,18 @@
     <t xml:space="preserve">706283,8063</t>
   </si>
   <si>
+    <t xml:space="preserve">https://geneagraphie.com/getperson.php?personID=I410281&amp;tree=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voorburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1840-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geneagraphie.com/getperson.php?personID=I410287&amp;tree=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">01023</t>
   </si>
   <si>
@@ -3508,6 +3502,12 @@
     <t xml:space="preserve">2746,0627</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/de-familie-hengeveld/I3356.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/de-familie-hengeveld/I3561.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01042</t>
   </si>
   <si>
@@ -3529,6 +3529,21 @@
     <t xml:space="preserve">1059407,6113</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-schenkenberg-van-mierop/I1061639100.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naaldwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1867-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogie-schenkenberg-van-mierop/I1061639103.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiel</t>
+  </si>
+  <si>
     <t xml:space="preserve">01069</t>
   </si>
   <si>
@@ -3610,6 +3625,15 @@
     <t xml:space="preserve">559625,9961</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-driessen/I7344712.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1862-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-driessen/I7344715.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01120</t>
   </si>
   <si>
@@ -3838,7 +3862,7 @@
     <t xml:space="preserve">01203</t>
   </si>
   <si>
-    <t xml:space="preserve">Schimmelpenninck van der Oye</t>
+    <t xml:space="preserve">A. Schimmelpenninck van der Oye</t>
   </si>
   <si>
     <t xml:space="preserve">1918-06-19</t>
@@ -3847,9 +3871,33 @@
     <t xml:space="preserve">1331755,2223</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/west-europese-adel/I150742.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1842-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/west-europese-adel/I150743.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zutphen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broer ging dood in 1889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/west-europese-adel/I166044.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01204</t>
   </si>
   <si>
+    <t xml:space="preserve">J.E.N. Schimmelpenninck van der Oye</t>
+  </si>
+  <si>
     <t xml:space="preserve">1914-04-11</t>
   </si>
   <si>
@@ -4174,6 +4222,9 @@
     <t xml:space="preserve">301151,7266</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.openarch.nl/search.php?top&amp;name=Ernest+van+de+Velde&amp;number_show=10&amp;sort=4&amp;start=40</t>
+  </si>
+  <si>
     <t xml:space="preserve">01404</t>
   </si>
   <si>
@@ -4258,6 +4309,18 @@
     <t xml:space="preserve">579068,3576</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Michiel-Viruly-heer-van-Vuren-en-Dalem/6000000013870206424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1880-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Johanna-Catharina-Mathijsen/6000000017128326884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stompwijk-Leidschendam</t>
+  </si>
+  <si>
     <t xml:space="preserve">01445</t>
   </si>
   <si>
@@ -4399,6 +4462,18 @@
     <t xml:space="preserve">702439,6723</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I73243784.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ermelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1892-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-driessen/I73243785.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01522</t>
   </si>
   <si>
@@ -4451,6 +4526,21 @@
   </si>
   <si>
     <t xml:space="preserve">427615,6366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/karens-family-tree/I168789.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1920-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/karens-family-tree/I168790.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice</t>
   </si>
   <si>
     <t xml:space="preserve">01583</t>
@@ -4573,7 +4663,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4595,6 +4685,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4676,13 +4770,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P264"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L174" activeCellId="0" sqref="L174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F183" activeCellId="0" sqref="F183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
@@ -5259,19 +5353,19 @@
         <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1816</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>23</v>
@@ -5279,37 +5373,37 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>-22697.91</v>
@@ -5317,16 +5411,16 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -5334,16 +5428,16 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
@@ -5351,16 +5445,16 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
@@ -5368,16 +5462,16 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
@@ -5385,51 +5479,51 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>123</v>
@@ -5440,16 +5534,16 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
@@ -5457,144 +5551,144 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1846</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
@@ -5603,16 +5697,16 @@
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
@@ -5621,55 +5715,55 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>194210.11</v>
@@ -5677,66 +5771,66 @@
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>63</v>
@@ -5744,34 +5838,34 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>48</v>
@@ -5782,108 +5876,108 @@
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>23507.11</v>
@@ -5891,34 +5985,34 @@
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>123</v>
@@ -5929,16 +6023,16 @@
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>30</v>
@@ -5947,75 +6041,75 @@
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>33928</v>
@@ -6023,66 +6117,66 @@
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>48</v>
@@ -6090,34 +6184,34 @@
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>63</v>
@@ -6125,16 +6219,16 @@
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>30</v>
@@ -6143,101 +6237,101 @@
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>123</v>
@@ -6251,37 +6345,37 @@
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>375</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>238498.45</v>
@@ -6289,69 +6383,72 @@
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>384</v>
+      <c r="L54" s="0" t="n">
+        <v>253233.67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>48</v>
@@ -6360,118 +6457,118 @@
         <v>1208.71</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>9929219.06</v>
@@ -6479,34 +6576,34 @@
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>48</v>
@@ -6514,16 +6611,16 @@
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>30</v>
@@ -6532,16 +6629,16 @@
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>30</v>
@@ -6550,54 +6647,54 @@
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>30</v>
@@ -6606,86 +6703,86 @@
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>30</v>
@@ -6694,40 +6791,40 @@
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J67" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>483</v>
+      <c r="L67" s="0" t="n">
+        <v>61128.48</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,101 +6855,101 @@
       <c r="J68" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="L68" s="0" t="s">
-        <v>492</v>
+      <c r="L68" s="0" t="n">
+        <v>34586.5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="K69" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>502</v>
+      <c r="L69" s="0" t="n">
+        <v>11761.92</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="I70" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="J70" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>160761.62</v>
+      </c>
+      <c r="O70" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="P70" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>30</v>
@@ -6861,16 +6958,16 @@
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>30</v>
@@ -6879,40 +6976,40 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>525</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="L73" s="0" t="s">
-        <v>528</v>
+      <c r="L73" s="0" t="n">
+        <v>-9865.05</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>3000</v>
@@ -6920,16 +7017,16 @@
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>30</v>
@@ -6938,16 +7035,16 @@
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>30</v>
@@ -6956,16 +7053,16 @@
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>30</v>
@@ -6974,16 +7071,16 @@
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>30</v>
@@ -6992,22 +7089,22 @@
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
@@ -7016,16 +7113,16 @@
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>30</v>
@@ -7034,51 +7131,51 @@
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="J81" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>557</v>
+      <c r="L81" s="0" t="n">
+        <v>2367</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>30</v>
@@ -7087,72 +7184,72 @@
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="J83" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="K83" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J84" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>578</v>
-      </c>
       <c r="K84" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>1025136.75</v>
@@ -7160,16 +7257,16 @@
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>30</v>
@@ -7178,37 +7275,37 @@
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L86" s="0" t="n">
         <v>71015.22</v>
@@ -7216,69 +7313,69 @@
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="J87" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>123</v>
@@ -7286,37 +7383,37 @@
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J89" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>616</v>
-      </c>
       <c r="K89" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>199414.57</v>
@@ -7324,89 +7421,89 @@
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="J90" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>636</v>
+        <v>630</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>12147.62</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>30</v>
@@ -7414,80 +7511,80 @@
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J93" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>648</v>
-      </c>
       <c r="K93" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -7495,34 +7592,34 @@
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>63</v>
@@ -7530,33 +7627,33 @@
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -7564,16 +7661,16 @@
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
@@ -7581,45 +7678,45 @@
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>1823</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>30</v>
@@ -7627,86 +7724,89 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="O102" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="P102" s="0" t="s">
         <v>687</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="J102" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="O102" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="P102" s="0" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1853</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>920120.63</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>30</v>
@@ -7714,162 +7814,165 @@
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>1875</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="M105" s="0" t="n">
+        <v>139072.35</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J107" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>728</v>
-      </c>
       <c r="K107" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="L108" s="0" t="n">
         <v>83735.58</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>30</v>
@@ -7877,37 +7980,37 @@
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="L110" s="0" t="n">
         <v>169512.84</v>
@@ -7915,51 +8018,51 @@
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>30</v>
@@ -7967,327 +8070,345 @@
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>490</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>764</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>127368.77</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>-6485</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>775</v>
+        <v>769</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="L114" s="0" t="n">
+        <v>3491.84</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="J116" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="J116" s="0" t="s">
-        <v>792</v>
-      </c>
       <c r="K116" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1907</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>1847</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="J119" s="0" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="J120" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>816</v>
-      </c>
       <c r="K120" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="L120" s="0" t="n">
         <v>14697.36</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="J121" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>825</v>
-      </c>
       <c r="K121" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="J122" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>834</v>
-      </c>
       <c r="K122" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>30</v>
@@ -8295,34 +8416,34 @@
     </row>
     <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>123</v>
@@ -8333,16 +8454,16 @@
     </row>
     <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>30</v>
@@ -8350,37 +8471,37 @@
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="J126" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>856</v>
-      </c>
       <c r="K126" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="M126" s="0" t="n">
         <v>53898.67</v>
@@ -8388,28 +8509,28 @@
     </row>
     <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M127" s="0" t="n">
         <v>0</v>
@@ -8417,89 +8538,89 @@
     </row>
     <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="J128" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J128" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="J129" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="K129" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="O129" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="G129" s="0" t="s">
+      <c r="P129" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="K129" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="O129" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="P129" s="0" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>30</v>
@@ -8507,16 +8628,16 @@
     </row>
     <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>30</v>
@@ -8524,16 +8645,16 @@
     </row>
     <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>30</v>
@@ -8541,51 +8662,54 @@
     </row>
     <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J133" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="J133" s="0" t="s">
-        <v>899</v>
-      </c>
       <c r="K133" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>934149.9</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>30</v>
@@ -8593,16 +8717,16 @@
     </row>
     <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>30</v>
@@ -8610,86 +8734,95 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F136" s="4" t="n">
         <v>-7793</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>554</v>
+        <v>550</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>1204126.08</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F137" s="4" t="n">
         <v>-6232</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="L137" s="0" t="n">
+        <v>5248.81</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>4010.87</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>30</v>
@@ -8697,16 +8830,16 @@
     </row>
     <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>30</v>
@@ -8714,121 +8847,127 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F140" s="4" t="n">
         <v>-15246</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F141" s="4" t="n">
         <v>-1500</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>943</v>
+        <v>938</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>277.86</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F142" s="4" t="n">
         <v>4817</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>635</v>
+        <v>630</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>290745.11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>30</v>
@@ -8836,85 +8975,85 @@
     </row>
     <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F146" s="4" t="n">
         <v>-3028</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>30</v>
@@ -8922,16 +9061,16 @@
     </row>
     <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>30</v>
@@ -8939,151 +9078,151 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F149" s="4" t="n">
         <v>-7291</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="L149" s="0" t="s">
-        <v>985</v>
+        <v>977</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>42288.73</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F150" s="4" t="n">
         <v>-797</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F151" s="4" t="n">
         <v>-14716</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="N151" s="0" t="s">
-        <v>1002</v>
+        <v>993</v>
+      </c>
+      <c r="N151" s="0" t="n">
+        <v>9635.78</v>
       </c>
       <c r="O151" s="0" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="P151" s="0" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="F152" s="4" t="n">
         <v>-5165</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>123</v>
@@ -9091,104 +9230,104 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F153" s="4" t="n">
         <v>-19514</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="N153" s="0" t="s">
-        <v>1019</v>
+        <v>376</v>
+      </c>
+      <c r="N153" s="0" t="n">
+        <v>95125.32</v>
       </c>
       <c r="O153" s="0" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="P153" s="0" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F154" s="4" t="n">
         <v>-19514</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="N154" s="0" t="s">
-        <v>1019</v>
+        <v>376</v>
+      </c>
+      <c r="N154" s="0" t="n">
+        <v>95125.32</v>
       </c>
       <c r="O154" s="0" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="P154" s="0" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>30</v>
@@ -9196,98 +9335,98 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F156" s="4" t="n">
         <v>-12144</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N156" s="0" t="s">
-        <v>1038</v>
+        <v>1029</v>
+      </c>
+      <c r="N156" s="0" t="n">
+        <v>145719.99</v>
       </c>
       <c r="O156" s="0" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="P156" s="0" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="F157" s="4" t="n">
         <v>-13086</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M157" s="0" t="s">
-        <v>1050</v>
+        <v>1040</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <v>28021.75</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>30</v>
@@ -9295,165 +9434,165 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="F159" s="4" t="n">
         <v>-6529</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="K159" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L159" s="0" t="s">
-        <v>1061</v>
+      <c r="L159" s="0" t="n">
+        <v>12798.06</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="F160" s="4" t="n">
         <v>-18253</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="F161" s="4" t="n">
         <v>-21474</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="M161" s="0" t="s">
-        <v>1077</v>
+        <v>294</v>
+      </c>
+      <c r="M161" s="0" t="n">
+        <v>2362.21</v>
       </c>
       <c r="O161" s="0" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="F162" s="4" t="n">
         <v>-10983</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I162" s="4" t="n">
         <v>-7486</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="5"/>
@@ -9463,227 +9602,244 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="F164" s="4" t="n">
         <v>-3601</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="I164" s="4" t="n">
         <v>-256</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="F165" s="4" t="n">
         <v>-3776</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I165" s="4" t="n">
         <v>8088</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="F166" s="4" t="n">
         <v>-9993</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="I166" s="4" t="n">
         <v>-23980</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="N166" s="0" t="s">
-        <v>1110</v>
+        <v>1097</v>
+      </c>
+      <c r="N166" s="0" t="n">
+        <v>125139.03</v>
       </c>
       <c r="O166" s="0" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="P166" s="0" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="F167" s="4" t="n">
         <v>-2832</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="I167" s="4" t="n">
         <v>7357</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="K167" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="M167" s="0" t="s">
-        <v>1120</v>
+      <c r="M167" s="0" t="n">
+        <v>945471.56</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="F168" s="4" t="n">
         <v>-9005</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="I168" s="4" t="n">
         <v>-7641</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M168" s="0" t="s">
-        <v>1128</v>
+        <v>1112</v>
+      </c>
+      <c r="M168" s="0" t="n">
+        <v>1716278.92</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
+        <v>1117</v>
+      </c>
+      <c r="F169" s="6" t="n">
+        <v>-5749</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I169" s="6" t="n">
+        <v>4747</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <v>516252.76</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>30</v>
@@ -9695,129 +9851,193 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
+        <v>1127</v>
+      </c>
+      <c r="F171" s="6" t="n">
+        <v>5423</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I171" s="6" t="n">
+        <v>-1314</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
+        <v>1134</v>
+      </c>
+      <c r="F172" s="6" t="n">
+        <v>-15330</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I172" s="6" t="n">
+        <v>-15269</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K172" s="0" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>-13596</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J175" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K175" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>-6206</v>
+      </c>
+      <c r="G177" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="H177" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J177" s="0" t="s">
         <v>1160</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <v>87871.98</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9837,7 +10057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9853,240 +10073,282 @@
       <c r="E179" s="1" t="s">
         <v>1167</v>
       </c>
+      <c r="F179" s="4" t="n">
+        <v>-7363</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H179" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J179" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <v>485818.1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1194</v>
+        <v>1199</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>-5956</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J186" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <v>338197.58</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
@@ -10094,33 +10356,33 @@
     </row>
     <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -10128,16 +10390,16 @@
     </row>
     <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
@@ -10145,50 +10407,50 @@
     </row>
     <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
@@ -10196,33 +10458,33 @@
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
@@ -10230,16 +10492,16 @@
     </row>
     <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
@@ -10247,50 +10509,50 @@
     </row>
     <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>30</v>
@@ -10298,16 +10560,16 @@
     </row>
     <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>30</v>
@@ -10315,276 +10577,311 @@
     </row>
     <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1273</v>
+        <v>1281</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>-9879</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H208" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J208" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K208" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N208" s="0" t="n">
+        <v>859340.53</v>
+      </c>
+      <c r="O208" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="P208" s="0" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>1270</v>
+        <v>1289</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1268</v>
+        <v>1290</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1273</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1271</v>
+        <v>1293</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>30</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>1276</v>
+        <v>1296</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1287</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1288</v>
+        <v>1307</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1289</v>
+        <v>1308</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1290</v>
+        <v>1309</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>30</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1291</v>
+        <v>1311</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1294</v>
+        <v>1314</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J215" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M215" s="0" t="n">
+        <v>2440955.74</v>
+      </c>
+      <c r="O215" s="0" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1295</v>
+        <v>1320</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1296</v>
+        <v>1321</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1297</v>
+        <v>1322</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G216" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J216" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M216" s="0" t="n">
-        <v>2440955.74</v>
-      </c>
-      <c r="O216" s="0" t="s">
-        <v>1303</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
     </row>
     <row r="217" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1304</v>
+        <v>1324</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1305</v>
+        <v>1325</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1306</v>
+        <v>1326</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
+        <v>1327</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
     <row r="218" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1308</v>
+        <v>1332</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K218" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>1335</v>
+      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>1316</v>
+        <v>1336</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1317</v>
+        <v>1337</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1318</v>
+        <v>1338</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -10597,19 +10894,19 @@
     </row>
     <row r="220" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>1320</v>
+        <v>1340</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1323</v>
+        <v>1343</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -10622,19 +10919,19 @@
     </row>
     <row r="221" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -10647,19 +10944,19 @@
     </row>
     <row r="222" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1331</v>
+        <v>30</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -10672,16 +10969,16 @@
     </row>
     <row r="223" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>1332</v>
+        <v>1351</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1333</v>
+        <v>1352</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1334</v>
+        <v>1353</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>30</v>
@@ -10697,16 +10994,16 @@
     </row>
     <row r="224" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1336</v>
+        <v>1355</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1337</v>
+        <v>1356</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>30</v>
@@ -10722,16 +11019,16 @@
     </row>
     <row r="225" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1338</v>
+        <v>1357</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1339</v>
+        <v>1358</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>30</v>
@@ -10747,19 +11044,19 @@
     </row>
     <row r="226" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1342</v>
+        <v>1361</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>30</v>
+        <v>1363</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -10772,19 +11069,19 @@
     </row>
     <row r="227" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1344</v>
+        <v>1364</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -10797,19 +11094,19 @@
     </row>
     <row r="228" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -10822,19 +11119,19 @@
     </row>
     <row r="229" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1353</v>
+        <v>1373</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -10847,19 +11144,19 @@
     </row>
     <row r="230" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -10872,279 +11169,298 @@
     </row>
     <row r="231" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>1364</v>
+        <v>1383</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1365</v>
+        <v>1384</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>30</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1370</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>1371</v>
+        <v>1391</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1372</v>
+        <v>1392</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="D235" s="1" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1378</v>
+        <v>1398</v>
+      </c>
+      <c r="F235" s="4" t="n">
+        <v>5786</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H235" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>1387</v>
+        <v>1408</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1388</v>
+        <v>1409</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>1391</v>
+        <v>1412</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1393</v>
+        <v>1414</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>1395</v>
+        <v>1416</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1396</v>
+        <v>1417</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>1399</v>
+        <v>1420</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1400</v>
+        <v>1421</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1406</v>
+        <v>1427</v>
+      </c>
+      <c r="F242" s="4" t="n">
+        <v>-17168</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H242" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J242" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K242" s="0" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>1407</v>
+        <v>1432</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1408</v>
+        <v>1433</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1409</v>
+        <v>1434</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1410</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>1411</v>
+        <v>1436</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1412</v>
+        <v>1437</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1413</v>
+        <v>1438</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1414</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>1415</v>
+        <v>1440</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1416</v>
+        <v>1441</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1417</v>
+        <v>1442</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1418</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>1419</v>
+        <v>1443</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1420</v>
+        <v>1444</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1421</v>
+        <v>1445</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>30</v>
@@ -11152,16 +11468,16 @@
     </row>
     <row r="247" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1422</v>
+        <v>1446</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1423</v>
+        <v>1447</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1424</v>
+        <v>1448</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>30</v>
@@ -11169,293 +11485,313 @@
     </row>
     <row r="248" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1425</v>
+        <v>1449</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1426</v>
+        <v>1450</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1427</v>
+        <v>1451</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>30</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1428</v>
+        <v>1453</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1429</v>
+        <v>1454</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1430</v>
+        <v>1455</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1431</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1432</v>
+        <v>1457</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1433</v>
+        <v>1458</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1434</v>
+        <v>1459</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1435</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1436</v>
+        <v>1460</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1437</v>
+        <v>1461</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1438</v>
+        <v>1462</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>30</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1439</v>
+        <v>1464</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1440</v>
+        <v>1465</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1441</v>
+        <v>1466</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1442</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1443</v>
+        <v>1468</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1444</v>
+        <v>1469</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1445</v>
+        <v>1470</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1446</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1447</v>
+        <v>1472</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1448</v>
+        <v>1473</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1449</v>
+        <v>1474</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1451</v>
+        <v>1476</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1453</v>
+        <v>1477</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1454</v>
+        <v>1478</v>
+      </c>
+      <c r="F255" s="4" t="n">
+        <v>-2824</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H255" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J255" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K255" s="0" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1455</v>
+        <v>1483</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1452</v>
+        <v>1484</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1456</v>
+        <v>1485</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1457</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1458</v>
+        <v>1487</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1459</v>
+        <v>1488</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1460</v>
+        <v>1489</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1461</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>1462</v>
+        <v>1490</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1463</v>
+        <v>1491</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1464</v>
+        <v>1492</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>30</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>1465</v>
+        <v>1494</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1466</v>
+        <v>1495</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1467</v>
+        <v>1496</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>1469</v>
+        <v>1497</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1470</v>
+        <v>1498</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1471</v>
+        <v>1499</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>30</v>
+        <v>1500</v>
+      </c>
+      <c r="F260" s="4" t="n">
+        <v>3484</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H260" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>1472</v>
+        <v>1506</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1473</v>
+        <v>1507</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1474</v>
+        <v>1508</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1475</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1476</v>
+        <v>1509</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1477</v>
+        <v>1510</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>30</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1480</v>
+        <v>1514</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1481</v>
+        <v>1515</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1486</v>
-      </c>
-    </row>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://www.openarch.nl/elo:b426756a-9121-8593-166e-f01bbd94ea75"/>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -4772,11 +4772,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F183" activeCellId="0" sqref="F183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>

--- a/Paper1/Data/instrumental_variable_est.xlsx
+++ b/Paper1/Data/instrumental_variable_est.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1588">
   <si>
     <t xml:space="preserve">polid</t>
   </si>
@@ -3556,6 +3556,15 @@
     <t xml:space="preserve">6319,2334</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Tjeerd-Pyttersen/6000000037602469405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1886-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-griffioen-koster/I346551.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01075</t>
   </si>
   <si>
@@ -3568,6 +3577,15 @@
     <t xml:space="preserve">63356,2822</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/David-van-Raalte/6000000005791812077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1896-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Louise-Elias/6000000005791812084</t>
+  </si>
+  <si>
     <t xml:space="preserve">01079</t>
   </si>
   <si>
@@ -3580,6 +3598,15 @@
     <t xml:space="preserve">-42815,0245</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogisch-onderzoek-west-brabant/I89632.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1886-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogisch-onderzoek-west-brabant/I24594.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01085</t>
   </si>
   <si>
@@ -3592,6 +3619,15 @@
     <t xml:space="preserve">9787,7410</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Martinus-de-Ras/6000000036818867885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1851-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-willemse/I3485.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01091</t>
   </si>
   <si>
@@ -3613,6 +3649,18 @@
     <t xml:space="preserve">1941-08-06</t>
   </si>
   <si>
+    <t xml:space="preserve">hebikwel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/van-willigen-stamboom/I8081.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1853-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/van-willigen-stamboom/I8080.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01118</t>
   </si>
   <si>
@@ -3646,6 +3694,18 @@
     <t xml:space="preserve">19141,0494</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Hendrik-Roessingh/6000000017904530599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1862-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Louise-Collard/6000000017478920122</t>
+  </si>
+  <si>
     <t xml:space="preserve">01121</t>
   </si>
   <si>
@@ -3658,6 +3718,24 @@
     <t xml:space="preserve">341199,1228</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Jan-Rombach/6000000000091120040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1855-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Johanna-Siebregt/6000000000091120047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montfoort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrouw overleden in 1888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Maria-Anna-de-Rouxville/6000000000087130977</t>
+  </si>
+  <si>
     <t xml:space="preserve">01124</t>
   </si>
   <si>
@@ -3670,6 +3748,15 @@
     <t xml:space="preserve">146871,8499</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/Jan-Willem-Marius-Roodenburg/6000000018388790278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Charlotte-Louise-Tak/6000000018388858164</t>
+  </si>
+  <si>
     <t xml:space="preserve">01125</t>
   </si>
   <si>
@@ -3682,6 +3769,12 @@
     <t xml:space="preserve">726,1250</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.ancestry.com/genealogy/records/hendrik-gerhardus-roodhuyzen-24-9k85vv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'s-Graveland</t>
+  </si>
+  <si>
     <t xml:space="preserve">01135</t>
   </si>
   <si>
@@ -3694,6 +3787,15 @@
     <t xml:space="preserve">2918301,2418</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/karens-family-tree/I195356.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1832-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/karens-family-tree/I195357.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01142</t>
   </si>
   <si>
@@ -3706,6 +3808,15 @@
     <t xml:space="preserve">-5424,4961</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nl.wikipedia.org/wiki/Jan_Freerks_Zijlker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winschoten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom_van_rems_dijkstra/I14198.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01147</t>
   </si>
   <si>
@@ -3727,6 +3838,18 @@
     <t xml:space="preserve">1014556,7301</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.geni.com/people/David-Rutgers-van-Rozenburg/6000000021000646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1869-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Anna-Elisabeth-Wilhelmina-Koenen/6000000021000646124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloemendaal?</t>
+  </si>
+  <si>
     <t xml:space="preserve">01152</t>
   </si>
   <si>
@@ -3757,6 +3880,21 @@
     <t xml:space="preserve">705802,3328</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-driessen/I73187891.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-driessen/I73187893.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 broers overleden in 1877 en 1879:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/en/stamboom-driessen/I73262105.php en https://www.genealogieonline.nl/en/stamboom-driessen/I73275165.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01170</t>
   </si>
   <si>
@@ -3790,6 +3928,21 @@
     <t xml:space="preserve">96084,4329</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7762.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1859-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7763.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrouw overleden 1906, dh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom-smits-van-oyen/I7761.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01180</t>
   </si>
   <si>
@@ -3820,6 +3973,15 @@
     <t xml:space="preserve">3051,3817</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.openarch.nl/search.php?top&amp;name=Niklaas+Schaper&amp;number_show=10&amp;sort=3&amp;start=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1916-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openarch.nl/gra:2028c717-6054-be75-6ec0-b839cfb8aa9e</t>
+  </si>
+  <si>
     <t xml:space="preserve">01191</t>
   </si>
   <si>
@@ -3832,6 +3994,18 @@
     <t xml:space="preserve">20508,0717</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nl.wikipedia.org/wiki/Schepel_(geslacht)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noordbroek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1879-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/stamboom_klavers/I266445.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01194</t>
   </si>
   <si>
@@ -3913,6 +4087,18 @@
     <t xml:space="preserve">35968,1288</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.genealogy.henny-savenije.pe.kr/tng/getperson.php?personID=I464125&amp;tree=savenije</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxtel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrouw overleden in 1879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genealogieonline.nl/genealogische-gegevens-tilburg-goirle/I254888.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">01238</t>
   </si>
   <si>
@@ -3925,6 +4111,18 @@
     <t xml:space="preserve">4469,1506</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.openarch.nl/rzh:6a3da4f6-4123-40a9-8fbd-4930256f9cc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leerdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1877-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openarch.nl/rzh:ffe47998-07f0-48fe-900e-d620b977a529</t>
+  </si>
+  <si>
     <t xml:space="preserve">01246</t>
   </si>
   <si>
@@ -3935,6 +4133,21 @@
   </si>
   <si>
     <t xml:space="preserve">273139,8114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geni.com/people/Johan-Balthasar-Christiaan-Sickesz/6000000037469406067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apeldoorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1839-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openarch.nl/hua:095283D3-752B-4B60-A7D5-E05716DDB044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amersfoort</t>
   </si>
   <si>
     <t xml:space="preserve">01269</t>
@@ -4772,15 +4985,14 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K213" activeCellId="0" sqref="K213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.83"/>
@@ -10095,7 +10307,7 @@
         <v>485818.1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>1173</v>
       </c>
@@ -10111,122 +10323,212 @@
       <c r="E180" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F180" s="4" t="n">
+        <v>-5312</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J180" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1183</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>-5328</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J181" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K181" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1190</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>-4054</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1187</v>
+        <v>1196</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1188</v>
+        <v>1197</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>-939</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J183" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K183" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>30</v>
+        <v>1208</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>-1807</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H185" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J185" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="F186" s="4" t="n">
         <v>-5956</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="K186" s="0" t="s">
         <v>294</v>
@@ -10235,154 +10537,274 @@
         <v>338197.58</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1222</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>-6492</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K187" s="0" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>1207</v>
+        <v>1227</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1208</v>
+        <v>1228</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1230</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>1864</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O188" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P188" s="0" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>1211</v>
+        <v>1237</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1212</v>
+        <v>1238</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1213</v>
+        <v>1239</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1240</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>308</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H189" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>1215</v>
+        <v>1244</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1216</v>
+        <v>1245</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1217</v>
+        <v>1246</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1247</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>4542</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H190" s="0" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1220</v>
+        <v>1251</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1221</v>
+        <v>1252</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1253</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>-16798</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H191" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>1223</v>
+        <v>1257</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1225</v>
+        <v>1259</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1226</v>
+        <v>1260</v>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>-11625</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I192" s="4" t="n">
+        <v>-6318</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>1227</v>
+        <v>1264</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1228</v>
+        <v>1265</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1229</v>
+        <v>1266</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1230</v>
+        <v>1267</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1231</v>
+        <v>1268</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1232</v>
+        <v>1269</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1233</v>
+        <v>1270</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>-15398</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H194" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J194" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K194" s="0" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1234</v>
+        <v>1275</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1235</v>
+        <v>1276</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1236</v>
+        <v>1277</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>30</v>
@@ -10390,101 +10812,149 @@
     </row>
     <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1237</v>
+        <v>1278</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1238</v>
+        <v>1279</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1241</v>
+        <v>1282</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1242</v>
+        <v>1283</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1243</v>
+        <v>1284</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>-20753</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H197" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J197" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K197" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="O197" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="P197" s="0" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1244</v>
+        <v>1290</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1245</v>
+        <v>1291</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1246</v>
+        <v>1292</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1247</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1248</v>
+        <v>1294</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1249</v>
+        <v>1295</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1250</v>
+        <v>1296</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1251</v>
+        <v>1297</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1252</v>
+        <v>1298</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1253</v>
+        <v>1299</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1254</v>
+        <v>1300</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>-18685</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H200" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J200" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K200" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O200" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P200" s="0" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1255</v>
+        <v>1306</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1257</v>
+        <v>1308</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
@@ -10492,67 +10962,103 @@
     </row>
     <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1258</v>
+        <v>1309</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1259</v>
+        <v>1310</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1260</v>
+        <v>1311</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1261</v>
+        <v>1312</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1262</v>
+        <v>1313</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1263</v>
+        <v>1314</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1315</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>8534</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H203" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J203" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>1265</v>
+        <v>1319</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1266</v>
+        <v>1320</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1267</v>
+        <v>1321</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1268</v>
+        <v>1322</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>-8397</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H204" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J204" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K204" s="0" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>1269</v>
+        <v>1327</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1270</v>
+        <v>1328</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1271</v>
+        <v>1329</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>30</v>
@@ -10560,16 +11066,16 @@
     </row>
     <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>1272</v>
+        <v>1330</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1273</v>
+        <v>1331</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1274</v>
+        <v>1332</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>30</v>
@@ -10577,16 +11083,16 @@
     </row>
     <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>1275</v>
+        <v>1333</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1276</v>
+        <v>1334</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1277</v>
+        <v>1335</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>30</v>
@@ -10594,128 +11100,179 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1278</v>
+        <v>1336</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1279</v>
+        <v>1337</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1280</v>
+        <v>1338</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1281</v>
+        <v>1339</v>
       </c>
       <c r="F208" s="4" t="n">
         <v>-9879</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>1282</v>
+        <v>1340</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>1283</v>
+        <v>1341</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1284</v>
+        <v>1342</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>1286</v>
+        <v>1344</v>
       </c>
       <c r="N208" s="0" t="n">
         <v>859340.53</v>
       </c>
       <c r="O208" s="0" t="s">
-        <v>1287</v>
+        <v>1345</v>
       </c>
       <c r="P208" s="0" t="s">
-        <v>1288</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>1289</v>
+        <v>1347</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1290</v>
+        <v>1348</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1291</v>
+        <v>1349</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>1292</v>
+        <v>1350</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1293</v>
+        <v>1351</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1294</v>
+        <v>1352</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1353</v>
+      </c>
+      <c r="F210" s="4" t="n">
+        <v>-17293</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H210" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O210" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P210" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>1296</v>
+        <v>1358</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1297</v>
+        <v>1359</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1298</v>
+        <v>1360</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1361</v>
+      </c>
+      <c r="F211" s="4" t="n">
+        <v>-8016</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H211" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J211" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>1300</v>
+        <v>1366</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1301</v>
+        <v>1367</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1302</v>
+        <v>1368</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1303</v>
+        <v>1369</v>
+      </c>
+      <c r="F212" s="4" t="n">
+        <v>-7281</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H212" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J212" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K212" s="0" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>1304</v>
+        <v>1375</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1305</v>
+        <v>1376</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1306</v>
+        <v>1377</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>30</v>
@@ -10723,77 +11280,77 @@
     </row>
     <row r="214" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1307</v>
+        <v>1378</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1308</v>
+        <v>1379</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1309</v>
+        <v>1380</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1310</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1311</v>
+        <v>1382</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1312</v>
+        <v>1383</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1313</v>
+        <v>1384</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1314</v>
+        <v>1385</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1315</v>
+        <v>1386</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>1316</v>
+        <v>1387</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>1317</v>
+        <v>1388</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>1318</v>
+        <v>1389</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>1316</v>
+        <v>1387</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>1317</v>
+        <v>1388</v>
       </c>
       <c r="M215" s="0" t="n">
         <v>2440955.74</v>
       </c>
       <c r="O215" s="0" t="s">
-        <v>1319</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1320</v>
+        <v>1391</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1321</v>
+        <v>1392</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1322</v>
+        <v>1393</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1323</v>
+        <v>1394</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -10806,34 +11363,34 @@
     </row>
     <row r="217" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1324</v>
+        <v>1395</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1325</v>
+        <v>1396</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1327</v>
+        <v>1398</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1328</v>
+        <v>1399</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1329</v>
+        <v>1400</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1330</v>
+        <v>1401</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1331</v>
+        <v>1402</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>123</v>
@@ -10844,19 +11401,19 @@
     </row>
     <row r="218" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1332</v>
+        <v>1403</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1333</v>
+        <v>1404</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1334</v>
+        <v>1405</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1335</v>
+        <v>1406</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -10869,19 +11426,19 @@
     </row>
     <row r="219" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>1336</v>
+        <v>1407</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1337</v>
+        <v>1408</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1338</v>
+        <v>1409</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1339</v>
+        <v>1410</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -10894,19 +11451,19 @@
     </row>
     <row r="220" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>1340</v>
+        <v>1411</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1341</v>
+        <v>1412</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1342</v>
+        <v>1413</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1343</v>
+        <v>1414</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -10919,19 +11476,19 @@
     </row>
     <row r="221" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>1344</v>
+        <v>1415</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1345</v>
+        <v>1416</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1346</v>
+        <v>1417</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1347</v>
+        <v>1418</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -10944,16 +11501,16 @@
     </row>
     <row r="222" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1348</v>
+        <v>1419</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1349</v>
+        <v>1420</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1350</v>
+        <v>1421</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>30</v>
@@ -10969,16 +11526,16 @@
     </row>
     <row r="223" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>1351</v>
+        <v>1422</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1352</v>
+        <v>1423</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1353</v>
+        <v>1424</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>30</v>
@@ -10994,16 +11551,16 @@
     </row>
     <row r="224" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1354</v>
+        <v>1425</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1355</v>
+        <v>1426</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1356</v>
+        <v>1427</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>30</v>
@@ -11019,16 +11576,16 @@
     </row>
     <row r="225" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1357</v>
+        <v>1428</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1358</v>
+        <v>1429</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1359</v>
+        <v>1430</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>30</v>
@@ -11044,19 +11601,19 @@
     </row>
     <row r="226" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1360</v>
+        <v>1431</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1361</v>
+        <v>1432</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1362</v>
+        <v>1433</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1363</v>
+        <v>1434</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -11069,19 +11626,19 @@
     </row>
     <row r="227" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1364</v>
+        <v>1435</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1365</v>
+        <v>1436</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1366</v>
+        <v>1437</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1367</v>
+        <v>1438</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -11094,19 +11651,19 @@
     </row>
     <row r="228" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>1368</v>
+        <v>1439</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1369</v>
+        <v>1440</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1370</v>
+        <v>1441</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1371</v>
+        <v>1442</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -11119,19 +11676,19 @@
     </row>
     <row r="229" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>1372</v>
+        <v>1443</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1373</v>
+        <v>1444</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1374</v>
+        <v>1445</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1375</v>
+        <v>1446</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -11144,19 +11701,19 @@
     </row>
     <row r="230" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>1376</v>
+        <v>1447</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1377</v>
+        <v>1448</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1378</v>
+        <v>1449</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1379</v>
+        <v>1450</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -11169,16 +11726,16 @@
     </row>
     <row r="231" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>1380</v>
+        <v>1451</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1381</v>
+        <v>1452</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1382</v>
+        <v>1453</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>30</v>
@@ -11186,76 +11743,76 @@
     </row>
     <row r="232" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>1383</v>
+        <v>1454</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1384</v>
+        <v>1455</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1385</v>
+        <v>1456</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1386</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>1387</v>
+        <v>1458</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1388</v>
+        <v>1459</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1389</v>
+        <v>1460</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1390</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>1391</v>
+        <v>1462</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1392</v>
+        <v>1463</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1393</v>
+        <v>1464</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1394</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>1395</v>
+        <v>1466</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1396</v>
+        <v>1467</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1397</v>
+        <v>1468</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1398</v>
+        <v>1469</v>
       </c>
       <c r="F235" s="4" t="n">
         <v>5786</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>1399</v>
+        <v>1470</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>123</v>
@@ -11263,187 +11820,187 @@
     </row>
     <row r="236" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>1400</v>
+        <v>1471</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1401</v>
+        <v>1472</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1402</v>
+        <v>1473</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1403</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>1404</v>
+        <v>1475</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1405</v>
+        <v>1476</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1406</v>
+        <v>1477</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1407</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>1408</v>
+        <v>1479</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1409</v>
+        <v>1480</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1410</v>
+        <v>1481</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1411</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>1412</v>
+        <v>1483</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1413</v>
+        <v>1484</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1414</v>
+        <v>1485</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1415</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>1416</v>
+        <v>1487</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1417</v>
+        <v>1488</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1418</v>
+        <v>1489</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1419</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>1420</v>
+        <v>1491</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1421</v>
+        <v>1492</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1422</v>
+        <v>1493</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1423</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>1424</v>
+        <v>1495</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1425</v>
+        <v>1496</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1426</v>
+        <v>1497</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1427</v>
+        <v>1498</v>
       </c>
       <c r="F242" s="4" t="n">
         <v>-17168</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>1428</v>
+        <v>1499</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>550</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>1430</v>
+        <v>1501</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>1431</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>1432</v>
+        <v>1503</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1433</v>
+        <v>1504</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1434</v>
+        <v>1505</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1435</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>1436</v>
+        <v>1507</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1437</v>
+        <v>1508</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1438</v>
+        <v>1509</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1439</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>1440</v>
+        <v>1511</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1441</v>
+        <v>1512</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1442</v>
+        <v>1513</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>30</v>
@@ -11451,16 +12008,16 @@
     </row>
     <row r="246" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>1443</v>
+        <v>1514</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1444</v>
+        <v>1515</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1445</v>
+        <v>1516</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>30</v>
@@ -11468,16 +12025,16 @@
     </row>
     <row r="247" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1446</v>
+        <v>1517</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1447</v>
+        <v>1518</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1448</v>
+        <v>1519</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>30</v>
@@ -11485,50 +12042,50 @@
     </row>
     <row r="248" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1449</v>
+        <v>1520</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1450</v>
+        <v>1521</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1451</v>
+        <v>1522</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1452</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1453</v>
+        <v>1524</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1454</v>
+        <v>1525</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1455</v>
+        <v>1526</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1456</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1457</v>
+        <v>1528</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1458</v>
+        <v>1529</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1459</v>
+        <v>1530</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>30</v>
@@ -11536,136 +12093,136 @@
     </row>
     <row r="251" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1460</v>
+        <v>1531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1461</v>
+        <v>1532</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1462</v>
+        <v>1533</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1463</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1464</v>
+        <v>1535</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1465</v>
+        <v>1536</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1466</v>
+        <v>1537</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1467</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1468</v>
+        <v>1539</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1469</v>
+        <v>1540</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1470</v>
+        <v>1541</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1471</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1472</v>
+        <v>1543</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1473</v>
+        <v>1544</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1474</v>
+        <v>1545</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1475</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1476</v>
+        <v>1547</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1473</v>
+        <v>1544</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1477</v>
+        <v>1548</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1478</v>
+        <v>1549</v>
       </c>
       <c r="F255" s="4" t="n">
         <v>-2824</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>1479</v>
+        <v>1550</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>1480</v>
+        <v>1551</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1481</v>
+        <v>1552</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>1482</v>
+        <v>1553</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1480</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1483</v>
+        <v>1554</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1484</v>
+        <v>1555</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1485</v>
+        <v>1556</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1486</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1487</v>
+        <v>1558</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1488</v>
+        <v>1559</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1489</v>
+        <v>1560</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>30</v>
@@ -11673,33 +12230,33 @@
     </row>
     <row r="258" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>1490</v>
+        <v>1561</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1491</v>
+        <v>1562</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1492</v>
+        <v>1563</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1493</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>1494</v>
+        <v>1565</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1495</v>
+        <v>1566</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1496</v>
+        <v>1567</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>30</v>
@@ -11707,51 +12264,51 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>1497</v>
+        <v>1568</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1498</v>
+        <v>1569</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1499</v>
+        <v>1570</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="F260" s="4" t="n">
         <v>3484</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>1501</v>
+        <v>1572</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>1502</v>
+        <v>1573</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1503</v>
+        <v>1574</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>1504</v>
+        <v>1575</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>1505</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>1506</v>
+        <v>1577</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1507</v>
+        <v>1578</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1508</v>
+        <v>1579</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>30</v>
@@ -11759,36 +12316,36 @@
     </row>
     <row r="262" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1509</v>
+        <v>1580</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1510</v>
+        <v>1581</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1511</v>
+        <v>1582</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1512</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>1513</v>
+        <v>1584</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1514</v>
+        <v>1585</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1515</v>
+        <v>1586</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1516</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
